--- a/Dataset/15/나의 해방일지_학습 (15)/해방일지13.xlsx
+++ b/Dataset/15/나의 해방일지_학습 (15)/해방일지13.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DooDoo\Desktop\05.25 학습\나의 해방일지_학습 (15)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doohk\Desktop\GIST\4학년 1학기\AI 프로젝트\AI\Dataset\15\나의 해방일지_학습 (15)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0C3543-35E6-4DD2-A684-A5457E3A0927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2171AA7-9219-4242-8C53-B6EABCA7231B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2914" yWindow="2914" windowWidth="24686" windowHeight="13055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="1259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="1260">
   <si>
     <t>Time</t>
   </si>
@@ -3814,6 +3814,9 @@
   <si>
     <t>fixed-label</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sigmoid_label</t>
   </si>
 </sst>
 </file>
@@ -4185,20 +4188,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E635"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A416" workbookViewId="0">
-      <selection activeCell="E491" sqref="E491"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="61.75" customWidth="1"/>
+    <col min="2" max="2" width="61.7109375" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4212,10 +4214,10 @@
         <v>1258</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4230,7 +4232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -4245,7 +4247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -4260,7 +4262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -4275,7 +4277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -4293,7 +4295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -4308,7 +4310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -4323,7 +4325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -4341,7 +4343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -4356,7 +4358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -4371,7 +4373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -4386,7 +4388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -4401,7 +4403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -4416,7 +4418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -4431,7 +4433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -4446,7 +4448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -4461,7 +4463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -4476,7 +4478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -4491,7 +4493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -4506,7 +4508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -4521,7 +4523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -4536,7 +4538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -4551,7 +4553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -4566,7 +4568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -4584,7 +4586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -4599,7 +4601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -4614,7 +4616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -4629,7 +4631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -4644,7 +4646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -4659,7 +4661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -4674,7 +4676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -4689,7 +4691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -4704,7 +4706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>67</v>
       </c>
@@ -4719,7 +4721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -4734,7 +4736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -4749,7 +4751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>73</v>
       </c>
@@ -4764,7 +4766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -4779,7 +4781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -4794,7 +4796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -4809,7 +4811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>81</v>
       </c>
@@ -4824,7 +4826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>83</v>
       </c>
@@ -4839,7 +4841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -4854,7 +4856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -4869,7 +4871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -4887,7 +4889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -4902,7 +4904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -4917,7 +4919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -4932,7 +4934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -4947,7 +4949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -4962,7 +4964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -4977,7 +4979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -4992,7 +4994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>105</v>
       </c>
@@ -5007,7 +5009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>107</v>
       </c>
@@ -5025,7 +5027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -5040,7 +5042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>111</v>
       </c>
@@ -5055,7 +5057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>113</v>
       </c>
@@ -5070,7 +5072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>115</v>
       </c>
@@ -5088,7 +5090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>117</v>
       </c>
@@ -5103,7 +5105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -5118,7 +5120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>121</v>
       </c>
@@ -5133,7 +5135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>123</v>
       </c>
@@ -5148,7 +5150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>125</v>
       </c>
@@ -5163,7 +5165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>127</v>
       </c>
@@ -5178,7 +5180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -5193,7 +5195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>131</v>
       </c>
@@ -5211,7 +5213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>133</v>
       </c>
@@ -5226,7 +5228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>135</v>
       </c>
@@ -5241,7 +5243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>137</v>
       </c>
@@ -5256,7 +5258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>139</v>
       </c>
@@ -5274,7 +5276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>141</v>
       </c>
@@ -5289,7 +5291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>143</v>
       </c>
@@ -5304,7 +5306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>145</v>
       </c>
@@ -5319,7 +5321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>147</v>
       </c>
@@ -5334,7 +5336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>149</v>
       </c>
@@ -5352,7 +5354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>151</v>
       </c>
@@ -5367,7 +5369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>153</v>
       </c>
@@ -5382,7 +5384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>155</v>
       </c>
@@ -5397,7 +5399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>157</v>
       </c>
@@ -5412,7 +5414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>159</v>
       </c>
@@ -5427,7 +5429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>161</v>
       </c>
@@ -5442,7 +5444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>163</v>
       </c>
@@ -5457,7 +5459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>165</v>
       </c>
@@ -5472,7 +5474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>167</v>
       </c>
@@ -5487,7 +5489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>167</v>
       </c>
@@ -5502,7 +5504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>170</v>
       </c>
@@ -5517,7 +5519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>172</v>
       </c>
@@ -5532,7 +5534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>174</v>
       </c>
@@ -5547,7 +5549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>176</v>
       </c>
@@ -5562,7 +5564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>178</v>
       </c>
@@ -5577,7 +5579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>180</v>
       </c>
@@ -5592,7 +5594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>182</v>
       </c>
@@ -5607,7 +5609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>184</v>
       </c>
@@ -5625,7 +5627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>186</v>
       </c>
@@ -5640,7 +5642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>188</v>
       </c>
@@ -5655,7 +5657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>190</v>
       </c>
@@ -5670,7 +5672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>192</v>
       </c>
@@ -5685,7 +5687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>194</v>
       </c>
@@ -5700,7 +5702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>196</v>
       </c>
@@ -5715,7 +5717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>198</v>
       </c>
@@ -5730,7 +5732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>200</v>
       </c>
@@ -5745,7 +5747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>202</v>
       </c>
@@ -5760,7 +5762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>204</v>
       </c>
@@ -5775,7 +5777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>206</v>
       </c>
@@ -5790,7 +5792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>208</v>
       </c>
@@ -5808,7 +5810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>210</v>
       </c>
@@ -5823,7 +5825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>212</v>
       </c>
@@ -5838,7 +5840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>214</v>
       </c>
@@ -5856,7 +5858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>216</v>
       </c>
@@ -5871,7 +5873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>218</v>
       </c>
@@ -5886,7 +5888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>220</v>
       </c>
@@ -5904,7 +5906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>222</v>
       </c>
@@ -5919,7 +5921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>224</v>
       </c>
@@ -5934,7 +5936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>226</v>
       </c>
@@ -5949,7 +5951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>228</v>
       </c>
@@ -5964,7 +5966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>230</v>
       </c>
@@ -5979,7 +5981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>232</v>
       </c>
@@ -5994,7 +5996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>234</v>
       </c>
@@ -6009,7 +6011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>236</v>
       </c>
@@ -6024,7 +6026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>238</v>
       </c>
@@ -6039,7 +6041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>240</v>
       </c>
@@ -6054,7 +6056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
         <v>242</v>
       </c>
@@ -6069,7 +6071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>244</v>
       </c>
@@ -6084,7 +6086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>246</v>
       </c>
@@ -6099,7 +6101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
         <v>248</v>
       </c>
@@ -6114,7 +6116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
         <v>250</v>
       </c>
@@ -6129,7 +6131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
         <v>252</v>
       </c>
@@ -6144,7 +6146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
         <v>254</v>
       </c>
@@ -6162,7 +6164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
         <v>256</v>
       </c>
@@ -6177,7 +6179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
         <v>258</v>
       </c>
@@ -6192,7 +6194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
         <v>260</v>
       </c>
@@ -6207,7 +6209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
         <v>262</v>
       </c>
@@ -6222,7 +6224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
         <v>264</v>
       </c>
@@ -6237,7 +6239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
         <v>266</v>
       </c>
@@ -6252,7 +6254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
         <v>268</v>
       </c>
@@ -6267,7 +6269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
         <v>270</v>
       </c>
@@ -6282,7 +6284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
         <v>272</v>
       </c>
@@ -6297,7 +6299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
         <v>274</v>
       </c>
@@ -6312,7 +6314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
         <v>276</v>
       </c>
@@ -6327,7 +6329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
         <v>278</v>
       </c>
@@ -6342,7 +6344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
         <v>280</v>
       </c>
@@ -6357,7 +6359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
         <v>282</v>
       </c>
@@ -6372,7 +6374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
         <v>284</v>
       </c>
@@ -6387,7 +6389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
         <v>286</v>
       </c>
@@ -6402,7 +6404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
         <v>288</v>
       </c>
@@ -6420,7 +6422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
         <v>290</v>
       </c>
@@ -6435,7 +6437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
         <v>292</v>
       </c>
@@ -6450,7 +6452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
         <v>294</v>
       </c>
@@ -6465,7 +6467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
         <v>296</v>
       </c>
@@ -6480,7 +6482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
         <v>298</v>
       </c>
@@ -6495,7 +6497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
         <v>299</v>
       </c>
@@ -6510,7 +6512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
         <v>300</v>
       </c>
@@ -6528,7 +6530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
         <v>302</v>
       </c>
@@ -6543,7 +6545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
         <v>304</v>
       </c>
@@ -6558,7 +6560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
         <v>306</v>
       </c>
@@ -6573,7 +6575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
         <v>308</v>
       </c>
@@ -6588,7 +6590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
         <v>310</v>
       </c>
@@ -6603,7 +6605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
         <v>312</v>
       </c>
@@ -6618,7 +6620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
         <v>314</v>
       </c>
@@ -6633,7 +6635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
         <v>316</v>
       </c>
@@ -6648,7 +6650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
         <v>318</v>
       </c>
@@ -6666,7 +6668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
         <v>320</v>
       </c>
@@ -6681,7 +6683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
         <v>322</v>
       </c>
@@ -6696,7 +6698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
         <v>324</v>
       </c>
@@ -6711,7 +6713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
         <v>325</v>
       </c>
@@ -6726,7 +6728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
         <v>327</v>
       </c>
@@ -6741,7 +6743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
         <v>329</v>
       </c>
@@ -6756,7 +6758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
         <v>331</v>
       </c>
@@ -6771,7 +6773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
         <v>333</v>
       </c>
@@ -6786,7 +6788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
         <v>335</v>
       </c>
@@ -6801,7 +6803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
         <v>337</v>
       </c>
@@ -6816,7 +6818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
         <v>339</v>
       </c>
@@ -6831,7 +6833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
         <v>341</v>
       </c>
@@ -6846,7 +6848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
         <v>343</v>
       </c>
@@ -6861,7 +6863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
         <v>345</v>
       </c>
@@ -6876,7 +6878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
         <v>347</v>
       </c>
@@ -6891,7 +6893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
         <v>349</v>
       </c>
@@ -6909,7 +6911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
         <v>351</v>
       </c>
@@ -6924,7 +6926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
         <v>353</v>
       </c>
@@ -6939,7 +6941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
         <v>355</v>
       </c>
@@ -6954,7 +6956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
         <v>357</v>
       </c>
@@ -6969,7 +6971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
         <v>359</v>
       </c>
@@ -6984,7 +6986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
         <v>361</v>
       </c>
@@ -7002,7 +7004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
         <v>363</v>
       </c>
@@ -7017,7 +7019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
         <v>365</v>
       </c>
@@ -7032,7 +7034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
         <v>367</v>
       </c>
@@ -7047,7 +7049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
         <v>369</v>
       </c>
@@ -7065,7 +7067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
         <v>371</v>
       </c>
@@ -7080,7 +7082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
         <v>373</v>
       </c>
@@ -7095,7 +7097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
         <v>375</v>
       </c>
@@ -7110,7 +7112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
         <v>377</v>
       </c>
@@ -7125,7 +7127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
         <v>379</v>
       </c>
@@ -7140,7 +7142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
         <v>381</v>
       </c>
@@ -7155,7 +7157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
         <v>383</v>
       </c>
@@ -7173,7 +7175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
         <v>385</v>
       </c>
@@ -7188,7 +7190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
         <v>387</v>
       </c>
@@ -7203,7 +7205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
         <v>389</v>
       </c>
@@ -7218,7 +7220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="s">
         <v>391</v>
       </c>
@@ -7233,7 +7235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="s">
         <v>393</v>
       </c>
@@ -7248,7 +7250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="s">
         <v>395</v>
       </c>
@@ -7263,7 +7265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="s">
         <v>397</v>
       </c>
@@ -7281,7 +7283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="s">
         <v>399</v>
       </c>
@@ -7296,7 +7298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="s">
         <v>401</v>
       </c>
@@ -7311,7 +7313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="s">
         <v>403</v>
       </c>
@@ -7326,7 +7328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
         <v>405</v>
       </c>
@@ -7341,7 +7343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="s">
         <v>407</v>
       </c>
@@ -7356,7 +7358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="s">
         <v>409</v>
       </c>
@@ -7371,7 +7373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" t="s">
         <v>411</v>
       </c>
@@ -7386,7 +7388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" t="s">
         <v>413</v>
       </c>
@@ -7401,7 +7403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" t="s">
         <v>415</v>
       </c>
@@ -7416,7 +7418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" t="s">
         <v>417</v>
       </c>
@@ -7431,7 +7433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="s">
         <v>419</v>
       </c>
@@ -7446,7 +7448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" t="s">
         <v>421</v>
       </c>
@@ -7461,7 +7463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" t="s">
         <v>423</v>
       </c>
@@ -7476,7 +7478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" t="s">
         <v>425</v>
       </c>
@@ -7491,7 +7493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" t="s">
         <v>427</v>
       </c>
@@ -7509,7 +7511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="s">
         <v>429</v>
       </c>
@@ -7524,7 +7526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" t="s">
         <v>431</v>
       </c>
@@ -7539,7 +7541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="s">
         <v>433</v>
       </c>
@@ -7554,7 +7556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="s">
         <v>435</v>
       </c>
@@ -7569,7 +7571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="s">
         <v>437</v>
       </c>
@@ -7584,7 +7586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" t="s">
         <v>439</v>
       </c>
@@ -7599,7 +7601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" t="s">
         <v>441</v>
       </c>
@@ -7614,7 +7616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="s">
         <v>443</v>
       </c>
@@ -7629,7 +7631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" t="s">
         <v>445</v>
       </c>
@@ -7644,7 +7646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" t="s">
         <v>447</v>
       </c>
@@ -7659,7 +7661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="s">
         <v>449</v>
       </c>
@@ -7674,7 +7676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="s">
         <v>451</v>
       </c>
@@ -7689,7 +7691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="s">
         <v>453</v>
       </c>
@@ -7704,7 +7706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="s">
         <v>455</v>
       </c>
@@ -7719,7 +7721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" t="s">
         <v>457</v>
       </c>
@@ -7734,7 +7736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" t="s">
         <v>459</v>
       </c>
@@ -7749,7 +7751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" t="s">
         <v>461</v>
       </c>
@@ -7764,7 +7766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" t="s">
         <v>463</v>
       </c>
@@ -7779,7 +7781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" t="s">
         <v>465</v>
       </c>
@@ -7794,7 +7796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" t="s">
         <v>467</v>
       </c>
@@ -7809,7 +7811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" t="s">
         <v>469</v>
       </c>
@@ -7824,7 +7826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" t="s">
         <v>471</v>
       </c>
@@ -7839,7 +7841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" t="s">
         <v>473</v>
       </c>
@@ -7854,7 +7856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" t="s">
         <v>475</v>
       </c>
@@ -7869,7 +7871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" t="s">
         <v>477</v>
       </c>
@@ -7884,7 +7886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" t="s">
         <v>479</v>
       </c>
@@ -7899,7 +7901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" t="s">
         <v>481</v>
       </c>
@@ -7914,7 +7916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" t="s">
         <v>483</v>
       </c>
@@ -7929,7 +7931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" t="s">
         <v>485</v>
       </c>
@@ -7944,7 +7946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" t="s">
         <v>487</v>
       </c>
@@ -7959,7 +7961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" t="s">
         <v>489</v>
       </c>
@@ -7974,7 +7976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" t="s">
         <v>491</v>
       </c>
@@ -7989,7 +7991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" t="s">
         <v>493</v>
       </c>
@@ -8004,7 +8006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" t="s">
         <v>495</v>
       </c>
@@ -8019,7 +8021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" t="s">
         <v>497</v>
       </c>
@@ -8034,7 +8036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" t="s">
         <v>499</v>
       </c>
@@ -8049,7 +8051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" t="s">
         <v>501</v>
       </c>
@@ -8064,7 +8066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" t="s">
         <v>503</v>
       </c>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" t="s">
         <v>505</v>
       </c>
@@ -8094,7 +8096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" t="s">
         <v>507</v>
       </c>
@@ -8109,7 +8111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" t="s">
         <v>509</v>
       </c>
@@ -8124,7 +8126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" t="s">
         <v>511</v>
       </c>
@@ -8139,7 +8141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" t="s">
         <v>513</v>
       </c>
@@ -8154,7 +8156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" t="s">
         <v>515</v>
       </c>
@@ -8169,7 +8171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" t="s">
         <v>517</v>
       </c>
@@ -8184,7 +8186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" t="s">
         <v>519</v>
       </c>
@@ -8199,7 +8201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" t="s">
         <v>521</v>
       </c>
@@ -8214,7 +8216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" t="s">
         <v>523</v>
       </c>
@@ -8229,7 +8231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" t="s">
         <v>525</v>
       </c>
@@ -8247,7 +8249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" t="s">
         <v>527</v>
       </c>
@@ -8262,7 +8264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" t="s">
         <v>529</v>
       </c>
@@ -8277,7 +8279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" t="s">
         <v>531</v>
       </c>
@@ -8292,7 +8294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" t="s">
         <v>533</v>
       </c>
@@ -8310,7 +8312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" t="s">
         <v>535</v>
       </c>
@@ -8328,7 +8330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" t="s">
         <v>537</v>
       </c>
@@ -8343,7 +8345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" t="s">
         <v>539</v>
       </c>
@@ -8358,7 +8360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" t="s">
         <v>541</v>
       </c>
@@ -8373,7 +8375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" t="s">
         <v>543</v>
       </c>
@@ -8388,7 +8390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" t="s">
         <v>545</v>
       </c>
@@ -8403,7 +8405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" t="s">
         <v>547</v>
       </c>
@@ -8421,7 +8423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" t="s">
         <v>549</v>
       </c>
@@ -8436,7 +8438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" t="s">
         <v>551</v>
       </c>
@@ -8451,7 +8453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" t="s">
         <v>553</v>
       </c>
@@ -8466,7 +8468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" t="s">
         <v>555</v>
       </c>
@@ -8481,7 +8483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" t="s">
         <v>557</v>
       </c>
@@ -8496,7 +8498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" t="s">
         <v>559</v>
       </c>
@@ -8511,7 +8513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" t="s">
         <v>561</v>
       </c>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" t="s">
         <v>563</v>
       </c>
@@ -8541,7 +8543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" t="s">
         <v>565</v>
       </c>
@@ -8556,7 +8558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" t="s">
         <v>567</v>
       </c>
@@ -8571,7 +8573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" t="s">
         <v>569</v>
       </c>
@@ -8586,7 +8588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" t="s">
         <v>571</v>
       </c>
@@ -8601,7 +8603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" t="s">
         <v>572</v>
       </c>
@@ -8616,7 +8618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" t="s">
         <v>574</v>
       </c>
@@ -8631,7 +8633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" t="s">
         <v>576</v>
       </c>
@@ -8646,7 +8648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" t="s">
         <v>578</v>
       </c>
@@ -8661,7 +8663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" t="s">
         <v>580</v>
       </c>
@@ -8676,7 +8678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" t="s">
         <v>582</v>
       </c>
@@ -8691,7 +8693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" t="s">
         <v>584</v>
       </c>
@@ -8706,7 +8708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" t="s">
         <v>586</v>
       </c>
@@ -8721,7 +8723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" t="s">
         <v>588</v>
       </c>
@@ -8736,7 +8738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" t="s">
         <v>590</v>
       </c>
@@ -8751,7 +8753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" t="s">
         <v>592</v>
       </c>
@@ -8766,7 +8768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" t="s">
         <v>594</v>
       </c>
@@ -8784,7 +8786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" t="s">
         <v>596</v>
       </c>
@@ -8799,7 +8801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" t="s">
         <v>598</v>
       </c>
@@ -8814,7 +8816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" t="s">
         <v>600</v>
       </c>
@@ -8829,7 +8831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" t="s">
         <v>602</v>
       </c>
@@ -8844,7 +8846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" t="s">
         <v>604</v>
       </c>
@@ -8859,7 +8861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" t="s">
         <v>606</v>
       </c>
@@ -8874,7 +8876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" t="s">
         <v>608</v>
       </c>
@@ -8889,7 +8891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" t="s">
         <v>610</v>
       </c>
@@ -8904,7 +8906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" t="s">
         <v>612</v>
       </c>
@@ -8919,7 +8921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" t="s">
         <v>614</v>
       </c>
@@ -8934,7 +8936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" t="s">
         <v>616</v>
       </c>
@@ -8952,7 +8954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" t="s">
         <v>618</v>
       </c>
@@ -8967,7 +8969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" t="s">
         <v>620</v>
       </c>
@@ -8982,7 +8984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" t="s">
         <v>622</v>
       </c>
@@ -8997,7 +8999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" t="s">
         <v>624</v>
       </c>
@@ -9012,7 +9014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" t="s">
         <v>626</v>
       </c>
@@ -9030,7 +9032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" t="s">
         <v>628</v>
       </c>
@@ -9045,7 +9047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" t="s">
         <v>630</v>
       </c>
@@ -9060,7 +9062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" t="s">
         <v>632</v>
       </c>
@@ -9075,7 +9077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" t="s">
         <v>634</v>
       </c>
@@ -9090,7 +9092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" t="s">
         <v>636</v>
       </c>
@@ -9105,7 +9107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" t="s">
         <v>638</v>
       </c>
@@ -9120,7 +9122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" t="s">
         <v>640</v>
       </c>
@@ -9135,7 +9137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" t="s">
         <v>642</v>
       </c>
@@ -9153,7 +9155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" t="s">
         <v>644</v>
       </c>
@@ -9171,7 +9173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" t="s">
         <v>646</v>
       </c>
@@ -9189,7 +9191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" t="s">
         <v>648</v>
       </c>
@@ -9204,7 +9206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" t="s">
         <v>650</v>
       </c>
@@ -9219,7 +9221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" t="s">
         <v>652</v>
       </c>
@@ -9234,7 +9236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" t="s">
         <v>654</v>
       </c>
@@ -9249,7 +9251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" t="s">
         <v>656</v>
       </c>
@@ -9264,7 +9266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" t="s">
         <v>658</v>
       </c>
@@ -9279,7 +9281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" t="s">
         <v>660</v>
       </c>
@@ -9294,7 +9296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" t="s">
         <v>662</v>
       </c>
@@ -9309,7 +9311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" t="s">
         <v>664</v>
       </c>
@@ -9324,7 +9326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" t="s">
         <v>666</v>
       </c>
@@ -9339,7 +9341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" t="s">
         <v>668</v>
       </c>
@@ -9354,7 +9356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" t="s">
         <v>670</v>
       </c>
@@ -9372,7 +9374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" t="s">
         <v>672</v>
       </c>
@@ -9387,7 +9389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" t="s">
         <v>674</v>
       </c>
@@ -9402,7 +9404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" t="s">
         <v>676</v>
       </c>
@@ -9417,7 +9419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" t="s">
         <v>678</v>
       </c>
@@ -9432,7 +9434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" t="s">
         <v>680</v>
       </c>
@@ -9447,7 +9449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" t="s">
         <v>682</v>
       </c>
@@ -9462,7 +9464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" t="s">
         <v>684</v>
       </c>
@@ -9477,7 +9479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" t="s">
         <v>686</v>
       </c>
@@ -9492,7 +9494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" t="s">
         <v>688</v>
       </c>
@@ -9507,7 +9509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" t="s">
         <v>690</v>
       </c>
@@ -9522,7 +9524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" t="s">
         <v>692</v>
       </c>
@@ -9537,7 +9539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" t="s">
         <v>694</v>
       </c>
@@ -9552,7 +9554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" t="s">
         <v>696</v>
       </c>
@@ -9567,7 +9569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" t="s">
         <v>698</v>
       </c>
@@ -9582,7 +9584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" t="s">
         <v>700</v>
       </c>
@@ -9597,7 +9599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" t="s">
         <v>702</v>
       </c>
@@ -9612,7 +9614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" t="s">
         <v>704</v>
       </c>
@@ -9627,7 +9629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" t="s">
         <v>706</v>
       </c>
@@ -9642,7 +9644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" t="s">
         <v>708</v>
       </c>
@@ -9657,7 +9659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" t="s">
         <v>710</v>
       </c>
@@ -9672,7 +9674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" t="s">
         <v>712</v>
       </c>
@@ -9687,7 +9689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" t="s">
         <v>714</v>
       </c>
@@ -9702,7 +9704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" t="s">
         <v>716</v>
       </c>
@@ -9717,7 +9719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" t="s">
         <v>718</v>
       </c>
@@ -9732,7 +9734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" t="s">
         <v>720</v>
       </c>
@@ -9747,7 +9749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" t="s">
         <v>722</v>
       </c>
@@ -9762,7 +9764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" t="s">
         <v>724</v>
       </c>
@@ -9780,7 +9782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" t="s">
         <v>726</v>
       </c>
@@ -9798,7 +9800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" t="s">
         <v>728</v>
       </c>
@@ -9816,7 +9818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" t="s">
         <v>730</v>
       </c>
@@ -9834,7 +9836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" t="s">
         <v>732</v>
       </c>
@@ -9852,7 +9854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" t="s">
         <v>734</v>
       </c>
@@ -9867,7 +9869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" t="s">
         <v>736</v>
       </c>
@@ -9885,7 +9887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" t="s">
         <v>738</v>
       </c>
@@ -9900,7 +9902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" t="s">
         <v>740</v>
       </c>
@@ -9915,7 +9917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" t="s">
         <v>742</v>
       </c>
@@ -9930,7 +9932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" t="s">
         <v>744</v>
       </c>
@@ -9945,7 +9947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" t="s">
         <v>746</v>
       </c>
@@ -9963,7 +9965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" t="s">
         <v>748</v>
       </c>
@@ -9978,7 +9980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" t="s">
         <v>750</v>
       </c>
@@ -9993,7 +9995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" t="s">
         <v>752</v>
       </c>
@@ -10008,7 +10010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" t="s">
         <v>754</v>
       </c>
@@ -10026,7 +10028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" t="s">
         <v>756</v>
       </c>
@@ -10041,7 +10043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" t="s">
         <v>758</v>
       </c>
@@ -10056,7 +10058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" t="s">
         <v>760</v>
       </c>
@@ -10074,7 +10076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" t="s">
         <v>762</v>
       </c>
@@ -10089,7 +10091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" t="s">
         <v>764</v>
       </c>
@@ -10107,7 +10109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" t="s">
         <v>766</v>
       </c>
@@ -10122,7 +10124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" t="s">
         <v>768</v>
       </c>
@@ -10137,7 +10139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" t="s">
         <v>770</v>
       </c>
@@ -10152,7 +10154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" t="s">
         <v>772</v>
       </c>
@@ -10170,7 +10172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" t="s">
         <v>774</v>
       </c>
@@ -10185,7 +10187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" t="s">
         <v>776</v>
       </c>
@@ -10200,7 +10202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" t="s">
         <v>778</v>
       </c>
@@ -10215,7 +10217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" t="s">
         <v>780</v>
       </c>
@@ -10230,7 +10232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" t="s">
         <v>782</v>
       </c>
@@ -10245,7 +10247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" t="s">
         <v>784</v>
       </c>
@@ -10263,7 +10265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" t="s">
         <v>786</v>
       </c>
@@ -10278,7 +10280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" t="s">
         <v>788</v>
       </c>
@@ -10293,7 +10295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" t="s">
         <v>790</v>
       </c>
@@ -10308,7 +10310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" t="s">
         <v>792</v>
       </c>
@@ -10323,7 +10325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" t="s">
         <v>794</v>
       </c>
@@ -10338,7 +10340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A401" t="s">
         <v>796</v>
       </c>
@@ -10356,7 +10358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" t="s">
         <v>798</v>
       </c>
@@ -10371,7 +10373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" t="s">
         <v>800</v>
       </c>
@@ -10386,7 +10388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" t="s">
         <v>802</v>
       </c>
@@ -10401,7 +10403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" t="s">
         <v>804</v>
       </c>
@@ -10416,7 +10418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" t="s">
         <v>806</v>
       </c>
@@ -10431,7 +10433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" t="s">
         <v>808</v>
       </c>
@@ -10446,7 +10448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A408" t="s">
         <v>810</v>
       </c>
@@ -10461,7 +10463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" t="s">
         <v>812</v>
       </c>
@@ -10476,7 +10478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" t="s">
         <v>814</v>
       </c>
@@ -10491,7 +10493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" t="s">
         <v>816</v>
       </c>
@@ -10506,7 +10508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" t="s">
         <v>818</v>
       </c>
@@ -10521,7 +10523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" t="s">
         <v>820</v>
       </c>
@@ -10536,7 +10538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" t="s">
         <v>822</v>
       </c>
@@ -10551,7 +10553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" t="s">
         <v>824</v>
       </c>
@@ -10566,7 +10568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" t="s">
         <v>826</v>
       </c>
@@ -10581,7 +10583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" t="s">
         <v>828</v>
       </c>
@@ -10596,7 +10598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" t="s">
         <v>830</v>
       </c>
@@ -10611,7 +10613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" t="s">
         <v>832</v>
       </c>
@@ -10626,7 +10628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" t="s">
         <v>834</v>
       </c>
@@ -10641,7 +10643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" t="s">
         <v>836</v>
       </c>
@@ -10656,7 +10658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" t="s">
         <v>838</v>
       </c>
@@ -10671,7 +10673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" t="s">
         <v>840</v>
       </c>
@@ -10686,7 +10688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" t="s">
         <v>842</v>
       </c>
@@ -10701,7 +10703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" t="s">
         <v>844</v>
       </c>
@@ -10716,7 +10718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A426" t="s">
         <v>846</v>
       </c>
@@ -10731,7 +10733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A427" t="s">
         <v>848</v>
       </c>
@@ -10746,7 +10748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A428" t="s">
         <v>850</v>
       </c>
@@ -10761,7 +10763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A429" t="s">
         <v>852</v>
       </c>
@@ -10776,7 +10778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A430" t="s">
         <v>854</v>
       </c>
@@ -10794,7 +10796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A431" t="s">
         <v>856</v>
       </c>
@@ -10809,7 +10811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A432" t="s">
         <v>858</v>
       </c>
@@ -10824,7 +10826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" t="s">
         <v>860</v>
       </c>
@@ -10839,7 +10841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A434" t="s">
         <v>862</v>
       </c>
@@ -10854,7 +10856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A435" t="s">
         <v>864</v>
       </c>
@@ -10872,7 +10874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A436" t="s">
         <v>866</v>
       </c>
@@ -10887,7 +10889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A437" t="s">
         <v>868</v>
       </c>
@@ -10902,7 +10904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A438" t="s">
         <v>870</v>
       </c>
@@ -10917,7 +10919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A439" t="s">
         <v>872</v>
       </c>
@@ -10935,7 +10937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A440" t="s">
         <v>874</v>
       </c>
@@ -10953,7 +10955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A441" t="s">
         <v>876</v>
       </c>
@@ -10968,7 +10970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A442" t="s">
         <v>878</v>
       </c>
@@ -10983,7 +10985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A443" t="s">
         <v>880</v>
       </c>
@@ -10998,7 +11000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A444" t="s">
         <v>882</v>
       </c>
@@ -11013,7 +11015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A445" t="s">
         <v>884</v>
       </c>
@@ -11028,7 +11030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A446" t="s">
         <v>886</v>
       </c>
@@ -11043,7 +11045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A447" t="s">
         <v>888</v>
       </c>
@@ -11058,7 +11060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A448" t="s">
         <v>889</v>
       </c>
@@ -11073,7 +11075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A449" t="s">
         <v>891</v>
       </c>
@@ -11088,7 +11090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A450" t="s">
         <v>893</v>
       </c>
@@ -11103,7 +11105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A451" t="s">
         <v>895</v>
       </c>
@@ -11118,7 +11120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A452" t="s">
         <v>897</v>
       </c>
@@ -11133,7 +11135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A453" t="s">
         <v>899</v>
       </c>
@@ -11148,7 +11150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A454" t="s">
         <v>901</v>
       </c>
@@ -11163,7 +11165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A455" t="s">
         <v>903</v>
       </c>
@@ -11178,7 +11180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A456" t="s">
         <v>905</v>
       </c>
@@ -11193,7 +11195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A457" t="s">
         <v>907</v>
       </c>
@@ -11208,7 +11210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A458" t="s">
         <v>909</v>
       </c>
@@ -11223,7 +11225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A459" t="s">
         <v>911</v>
       </c>
@@ -11238,7 +11240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A460" t="s">
         <v>913</v>
       </c>
@@ -11253,7 +11255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A461" t="s">
         <v>915</v>
       </c>
@@ -11268,7 +11270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A462" t="s">
         <v>917</v>
       </c>
@@ -11283,7 +11285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A463" t="s">
         <v>919</v>
       </c>
@@ -11298,7 +11300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A464" t="s">
         <v>921</v>
       </c>
@@ -11313,7 +11315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A465" t="s">
         <v>923</v>
       </c>
@@ -11328,7 +11330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A466" t="s">
         <v>925</v>
       </c>
@@ -11346,7 +11348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A467" t="s">
         <v>927</v>
       </c>
@@ -11361,7 +11363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A468" t="s">
         <v>929</v>
       </c>
@@ -11376,7 +11378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A469" t="s">
         <v>931</v>
       </c>
@@ -11394,7 +11396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A470" t="s">
         <v>933</v>
       </c>
@@ -11409,7 +11411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A471" t="s">
         <v>935</v>
       </c>
@@ -11427,7 +11429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A472" t="s">
         <v>937</v>
       </c>
@@ -11442,7 +11444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A473" t="s">
         <v>939</v>
       </c>
@@ -11457,7 +11459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A474" t="s">
         <v>941</v>
       </c>
@@ -11475,7 +11477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A475" t="s">
         <v>943</v>
       </c>
@@ -11490,7 +11492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A476" t="s">
         <v>945</v>
       </c>
@@ -11505,7 +11507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A477" t="s">
         <v>947</v>
       </c>
@@ -11520,7 +11522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A478" t="s">
         <v>949</v>
       </c>
@@ -11535,7 +11537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A479" t="s">
         <v>951</v>
       </c>
@@ -11550,7 +11552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A480" t="s">
         <v>953</v>
       </c>
@@ -11565,7 +11567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A481" t="s">
         <v>955</v>
       </c>
@@ -11580,7 +11582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A482" t="s">
         <v>957</v>
       </c>
@@ -11595,7 +11597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A483" t="s">
         <v>959</v>
       </c>
@@ -11610,7 +11612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A484" t="s">
         <v>961</v>
       </c>
@@ -11625,7 +11627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A485" t="s">
         <v>963</v>
       </c>
@@ -11640,7 +11642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A486" t="s">
         <v>965</v>
       </c>
@@ -11655,7 +11657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A487" t="s">
         <v>967</v>
       </c>
@@ -11670,7 +11672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A488" t="s">
         <v>969</v>
       </c>
@@ -11685,7 +11687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A489" t="s">
         <v>971</v>
       </c>
@@ -11700,7 +11702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A490" t="s">
         <v>973</v>
       </c>
@@ -11715,7 +11717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A491" t="s">
         <v>975</v>
       </c>
@@ -11730,7 +11732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A492" t="s">
         <v>977</v>
       </c>
@@ -11745,7 +11747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A493" t="s">
         <v>979</v>
       </c>
@@ -11760,7 +11762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A494" t="s">
         <v>981</v>
       </c>
@@ -11775,7 +11777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A495" t="s">
         <v>983</v>
       </c>
@@ -11790,7 +11792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A496" t="s">
         <v>985</v>
       </c>
@@ -11805,7 +11807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A497" t="s">
         <v>987</v>
       </c>
@@ -11820,7 +11822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A498" t="s">
         <v>989</v>
       </c>
@@ -11838,7 +11840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A499" t="s">
         <v>991</v>
       </c>
@@ -11853,7 +11855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A500" t="s">
         <v>993</v>
       </c>
@@ -11868,7 +11870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A501" t="s">
         <v>995</v>
       </c>
@@ -11883,7 +11885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A502" t="s">
         <v>997</v>
       </c>
@@ -11898,7 +11900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A503" t="s">
         <v>999</v>
       </c>
@@ -11913,7 +11915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A504" t="s">
         <v>1001</v>
       </c>
@@ -11928,7 +11930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A505" t="s">
         <v>1003</v>
       </c>
@@ -11943,7 +11945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A506" t="s">
         <v>1005</v>
       </c>
@@ -11958,7 +11960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A507" t="s">
         <v>1007</v>
       </c>
@@ -11976,7 +11978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A508" t="s">
         <v>1009</v>
       </c>
@@ -11991,7 +11993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A509" t="s">
         <v>1011</v>
       </c>
@@ -12009,7 +12011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A510" t="s">
         <v>1013</v>
       </c>
@@ -12024,7 +12026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A511" t="s">
         <v>1015</v>
       </c>
@@ -12039,7 +12041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A512" t="s">
         <v>1017</v>
       </c>
@@ -12054,7 +12056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A513" t="s">
         <v>1019</v>
       </c>
@@ -12069,7 +12071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A514" t="s">
         <v>1021</v>
       </c>
@@ -12084,7 +12086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A515" t="s">
         <v>1023</v>
       </c>
@@ -12099,7 +12101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A516" t="s">
         <v>1025</v>
       </c>
@@ -12114,7 +12116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A517" t="s">
         <v>1027</v>
       </c>
@@ -12129,7 +12131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A518" t="s">
         <v>1029</v>
       </c>
@@ -12147,7 +12149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A519" t="s">
         <v>1031</v>
       </c>
@@ -12162,7 +12164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A520" t="s">
         <v>1033</v>
       </c>
@@ -12180,7 +12182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A521" t="s">
         <v>1035</v>
       </c>
@@ -12198,7 +12200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A522" t="s">
         <v>1037</v>
       </c>
@@ -12213,7 +12215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A523" t="s">
         <v>1039</v>
       </c>
@@ -12228,7 +12230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A524" t="s">
         <v>1041</v>
       </c>
@@ -12243,7 +12245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A525" t="s">
         <v>1043</v>
       </c>
@@ -12258,7 +12260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A526" t="s">
         <v>1045</v>
       </c>
@@ -12276,7 +12278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A527" t="s">
         <v>1047</v>
       </c>
@@ -12291,7 +12293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A528" t="s">
         <v>1049</v>
       </c>
@@ -12306,7 +12308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A529" t="s">
         <v>1051</v>
       </c>
@@ -12321,7 +12323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A530" t="s">
         <v>1053</v>
       </c>
@@ -12336,7 +12338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A531" t="s">
         <v>1055</v>
       </c>
@@ -12354,7 +12356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A532" t="s">
         <v>1057</v>
       </c>
@@ -12369,7 +12371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A533" t="s">
         <v>1057</v>
       </c>
@@ -12384,7 +12386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A534" t="s">
         <v>1060</v>
       </c>
@@ -12399,7 +12401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A535" t="s">
         <v>1062</v>
       </c>
@@ -12414,7 +12416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A536" t="s">
         <v>1064</v>
       </c>
@@ -12429,7 +12431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A537" t="s">
         <v>1066</v>
       </c>
@@ -12444,7 +12446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A538" t="s">
         <v>1068</v>
       </c>
@@ -12459,7 +12461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A539" t="s">
         <v>1070</v>
       </c>
@@ -12474,7 +12476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A540" t="s">
         <v>1072</v>
       </c>
@@ -12492,7 +12494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A541" t="s">
         <v>1074</v>
       </c>
@@ -12507,7 +12509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A542" t="s">
         <v>1076</v>
       </c>
@@ -12522,7 +12524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A543" t="s">
         <v>1078</v>
       </c>
@@ -12537,7 +12539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A544" t="s">
         <v>1080</v>
       </c>
@@ -12555,7 +12557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A545" t="s">
         <v>1082</v>
       </c>
@@ -12570,7 +12572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A546" t="s">
         <v>1084</v>
       </c>
@@ -12585,7 +12587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A547" t="s">
         <v>1086</v>
       </c>
@@ -12600,7 +12602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A548" t="s">
         <v>1088</v>
       </c>
@@ -12615,7 +12617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A549" t="s">
         <v>1090</v>
       </c>
@@ -12630,7 +12632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A550" t="s">
         <v>1092</v>
       </c>
@@ -12645,7 +12647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A551" t="s">
         <v>1094</v>
       </c>
@@ -12660,7 +12662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A552" t="s">
         <v>1096</v>
       </c>
@@ -12675,7 +12677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A553" t="s">
         <v>1098</v>
       </c>
@@ -12690,7 +12692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A554" t="s">
         <v>1100</v>
       </c>
@@ -12705,7 +12707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A555" t="s">
         <v>1102</v>
       </c>
@@ -12720,7 +12722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A556" t="s">
         <v>1104</v>
       </c>
@@ -12735,7 +12737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A557" t="s">
         <v>1106</v>
       </c>
@@ -12750,7 +12752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A558" t="s">
         <v>1108</v>
       </c>
@@ -12765,7 +12767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A559" t="s">
         <v>1110</v>
       </c>
@@ -12780,7 +12782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A560" t="s">
         <v>1112</v>
       </c>
@@ -12795,7 +12797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A561" t="s">
         <v>1114</v>
       </c>
@@ -12810,7 +12812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A562" t="s">
         <v>1116</v>
       </c>
@@ -12825,7 +12827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A563" t="s">
         <v>1118</v>
       </c>
@@ -12840,7 +12842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A564" t="s">
         <v>1120</v>
       </c>
@@ -12855,7 +12857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A565" t="s">
         <v>1122</v>
       </c>
@@ -12870,7 +12872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A566" t="s">
         <v>1124</v>
       </c>
@@ -12885,7 +12887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A567" t="s">
         <v>1126</v>
       </c>
@@ -12900,7 +12902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A568" t="s">
         <v>1128</v>
       </c>
@@ -12915,7 +12917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A569" t="s">
         <v>1130</v>
       </c>
@@ -12933,7 +12935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A570" t="s">
         <v>1132</v>
       </c>
@@ -12948,7 +12950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A571" t="s">
         <v>1134</v>
       </c>
@@ -12963,7 +12965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A572" t="s">
         <v>1136</v>
       </c>
@@ -12978,7 +12980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A573" t="s">
         <v>1138</v>
       </c>
@@ -12993,7 +12995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A574" t="s">
         <v>1140</v>
       </c>
@@ -13008,7 +13010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A575" t="s">
         <v>1142</v>
       </c>
@@ -13023,7 +13025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A576" t="s">
         <v>1144</v>
       </c>
@@ -13038,7 +13040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A577" t="s">
         <v>1146</v>
       </c>
@@ -13053,7 +13055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A578" t="s">
         <v>1148</v>
       </c>
@@ -13071,7 +13073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A579" t="s">
         <v>1150</v>
       </c>
@@ -13086,7 +13088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A580" t="s">
         <v>1152</v>
       </c>
@@ -13104,7 +13106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A581" t="s">
         <v>1154</v>
       </c>
@@ -13119,7 +13121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A582" t="s">
         <v>1156</v>
       </c>
@@ -13134,7 +13136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A583" t="s">
         <v>1158</v>
       </c>
@@ -13149,7 +13151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A584" t="s">
         <v>1160</v>
       </c>
@@ -13164,7 +13166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A585" t="s">
         <v>1162</v>
       </c>
@@ -13179,7 +13181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A586" t="s">
         <v>1164</v>
       </c>
@@ -13197,7 +13199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A587" t="s">
         <v>1166</v>
       </c>
@@ -13212,7 +13214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A588" t="s">
         <v>1168</v>
       </c>
@@ -13227,7 +13229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A589" t="s">
         <v>1170</v>
       </c>
@@ -13245,7 +13247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A590" t="s">
         <v>1172</v>
       </c>
@@ -13260,7 +13262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A591" t="s">
         <v>1174</v>
       </c>
@@ -13275,7 +13277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A592" t="s">
         <v>1176</v>
       </c>
@@ -13290,7 +13292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A593" t="s">
         <v>1178</v>
       </c>
@@ -13305,7 +13307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A594" t="s">
         <v>1180</v>
       </c>
@@ -13320,7 +13322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A595" t="s">
         <v>1182</v>
       </c>
@@ -13338,7 +13340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A596" t="s">
         <v>1184</v>
       </c>
@@ -13353,7 +13355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A597" t="s">
         <v>1186</v>
       </c>
@@ -13368,7 +13370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A598" t="s">
         <v>1187</v>
       </c>
@@ -13383,7 +13385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A599" t="s">
         <v>1189</v>
       </c>
@@ -13398,7 +13400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A600" t="s">
         <v>1191</v>
       </c>
@@ -13413,7 +13415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A601" t="s">
         <v>1193</v>
       </c>
@@ -13428,7 +13430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A602" t="s">
         <v>1195</v>
       </c>
@@ -13443,7 +13445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A603" t="s">
         <v>1197</v>
       </c>
@@ -13458,7 +13460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A604" t="s">
         <v>1198</v>
       </c>
@@ -13473,7 +13475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A605" t="s">
         <v>1200</v>
       </c>
@@ -13488,7 +13490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A606" t="s">
         <v>1202</v>
       </c>
@@ -13503,7 +13505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A607" t="s">
         <v>1203</v>
       </c>
@@ -13518,7 +13520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A608" t="s">
         <v>1204</v>
       </c>
@@ -13533,7 +13535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A609" t="s">
         <v>1206</v>
       </c>
@@ -13548,7 +13550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A610" t="s">
         <v>1207</v>
       </c>
@@ -13563,7 +13565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A611" t="s">
         <v>1209</v>
       </c>
@@ -13578,7 +13580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A612" t="s">
         <v>1211</v>
       </c>
@@ -13593,7 +13595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A613" t="s">
         <v>1212</v>
       </c>
@@ -13608,7 +13610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A614" t="s">
         <v>1214</v>
       </c>
@@ -13626,7 +13628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A615" t="s">
         <v>1216</v>
       </c>
@@ -13641,7 +13643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A616" t="s">
         <v>1218</v>
       </c>
@@ -13656,7 +13658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A617" t="s">
         <v>1220</v>
       </c>
@@ -13674,7 +13676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A618" t="s">
         <v>1222</v>
       </c>
@@ -13689,7 +13691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A619" t="s">
         <v>1224</v>
       </c>
@@ -13704,7 +13706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A620" t="s">
         <v>1226</v>
       </c>
@@ -13719,7 +13721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A621" t="s">
         <v>1228</v>
       </c>
@@ -13734,7 +13736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A622" t="s">
         <v>1230</v>
       </c>
@@ -13749,7 +13751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A623" t="s">
         <v>1232</v>
       </c>
@@ -13767,7 +13769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A624" t="s">
         <v>1234</v>
       </c>
@@ -13785,7 +13787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A625" t="s">
         <v>1236</v>
       </c>
@@ -13800,7 +13802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A626" t="s">
         <v>1238</v>
       </c>
@@ -13815,7 +13817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A627" t="s">
         <v>1240</v>
       </c>
@@ -13833,7 +13835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A628" t="s">
         <v>1242</v>
       </c>
@@ -13851,7 +13853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A629" t="s">
         <v>1244</v>
       </c>
@@ -13866,7 +13868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A630" t="s">
         <v>1246</v>
       </c>
@@ -13881,7 +13883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A631" t="s">
         <v>1248</v>
       </c>
@@ -13899,7 +13901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A632" t="s">
         <v>1250</v>
       </c>
@@ -13917,7 +13919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A633" t="s">
         <v>1252</v>
       </c>
@@ -13932,7 +13934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A634" t="s">
         <v>1254</v>
       </c>
@@ -13947,7 +13949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A635" t="s">
         <v>1256</v>
       </c>
@@ -13966,16 +13968,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E635" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E635" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Dataset/15/나의 해방일지_학습 (15)/해방일지13.xlsx
+++ b/Dataset/15/나의 해방일지_학습 (15)/해방일지13.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doohk\Desktop\GIST\4학년 1학기\AI 프로젝트\AI\Dataset\15\나의 해방일지_학습 (15)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0D1D97-394C-46D0-9E77-F3B2B567896D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85FE7C1-1C97-4CAC-9CF4-C4C5012A1853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2194" yWindow="2194" windowWidth="16329" windowHeight="13055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4191,7 +4191,7 @@
   <dimension ref="A1:F635"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -4232,7 +4232,6 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E65" si="0">IF(ISBLANK(F2),D2,F2)</f>
         <v>0</v>
       </c>
     </row>
@@ -4247,11 +4246,10 @@
         <v>1.3692452572286131E-2</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" si="1">IF(C3&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D3:D66" si="0">IF(C3&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4266,11 +4264,10 @@
         <v>1.4231627807021139E-2</v>
       </c>
       <c r="D4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4285,11 +4282,10 @@
         <v>1.613197103142738E-2</v>
       </c>
       <c r="D5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4304,11 +4300,10 @@
         <v>0.98546379804611206</v>
       </c>
       <c r="D6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F6">
@@ -4326,11 +4321,10 @@
         <v>0.81165271997451782</v>
       </c>
       <c r="D7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4345,11 +4339,10 @@
         <v>1.364078093320131E-2</v>
       </c>
       <c r="D8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4364,11 +4357,10 @@
         <v>0.98547756671905518</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F9">
@@ -4386,11 +4378,10 @@
         <v>1.3692169450223449E-2</v>
       </c>
       <c r="D10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4405,11 +4396,10 @@
         <v>5.069897323846817E-2</v>
       </c>
       <c r="D11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4424,11 +4414,10 @@
         <v>1.394651364535093E-2</v>
       </c>
       <c r="D12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4443,11 +4432,10 @@
         <v>1.356786582618952E-2</v>
       </c>
       <c r="D13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4462,11 +4450,10 @@
         <v>0.2174984663724899</v>
       </c>
       <c r="D14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4481,11 +4468,10 @@
         <v>1.4927376993000511E-2</v>
       </c>
       <c r="D15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4500,11 +4486,10 @@
         <v>1.371319126337767E-2</v>
       </c>
       <c r="D16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4519,11 +4504,10 @@
         <v>1.385266706347466E-2</v>
       </c>
       <c r="D17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4538,11 +4522,10 @@
         <v>1.367995981127024E-2</v>
       </c>
       <c r="D18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4557,11 +4540,10 @@
         <v>1.4143255539238449E-2</v>
       </c>
       <c r="D19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4576,11 +4558,10 @@
         <v>1.362275145947933E-2</v>
       </c>
       <c r="D20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4595,11 +4576,10 @@
         <v>1.371714565902948E-2</v>
       </c>
       <c r="D21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4614,11 +4594,10 @@
         <v>3.8958132266998291E-2</v>
       </c>
       <c r="D22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4633,11 +4612,10 @@
         <v>1.3769419863820079E-2</v>
       </c>
       <c r="D23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4652,11 +4630,10 @@
         <v>1.380814984440804E-2</v>
       </c>
       <c r="D24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4671,11 +4648,10 @@
         <v>0.9657900333404541</v>
       </c>
       <c r="D25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F25">
@@ -4693,11 +4669,10 @@
         <v>0.98548120260238647</v>
       </c>
       <c r="D26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4712,11 +4687,10 @@
         <v>0.98545098304748535</v>
       </c>
       <c r="D27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4731,11 +4705,10 @@
         <v>1.397057436406612E-2</v>
       </c>
       <c r="D28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4750,11 +4723,10 @@
         <v>0.98539596796035767</v>
       </c>
       <c r="D29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4769,11 +4741,10 @@
         <v>1.466409582644701E-2</v>
       </c>
       <c r="D30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4788,11 +4759,10 @@
         <v>0.9854736328125</v>
       </c>
       <c r="D31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4807,11 +4777,10 @@
         <v>5.8915596455335617E-2</v>
       </c>
       <c r="D32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4826,11 +4795,10 @@
         <v>0.98482239246368408</v>
       </c>
       <c r="D33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4845,11 +4813,10 @@
         <v>0.98546350002288818</v>
       </c>
       <c r="D34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E34">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4864,11 +4831,10 @@
         <v>1.5078051947057251E-2</v>
       </c>
       <c r="D35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E35">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4883,11 +4849,10 @@
         <v>0.25234600901603699</v>
       </c>
       <c r="D36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E36">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4902,11 +4867,10 @@
         <v>1.410313323140144E-2</v>
       </c>
       <c r="D37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E37">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4921,11 +4885,10 @@
         <v>1.391187403351068E-2</v>
       </c>
       <c r="D38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E38">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4940,11 +4903,10 @@
         <v>1.367744989693165E-2</v>
       </c>
       <c r="D39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E39">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4959,11 +4921,10 @@
         <v>1.3724572025239469E-2</v>
       </c>
       <c r="D40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E40">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4978,11 +4939,10 @@
         <v>1.3628692366182801E-2</v>
       </c>
       <c r="D41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E41">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4997,11 +4957,10 @@
         <v>1.3859984464943411E-2</v>
       </c>
       <c r="D42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E42">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5016,11 +4975,10 @@
         <v>1.384264044463634E-2</v>
       </c>
       <c r="D43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E43">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5035,11 +4993,10 @@
         <v>3.026977926492691E-2</v>
       </c>
       <c r="D44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E44">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5054,11 +5011,10 @@
         <v>0.9854322075843811</v>
       </c>
       <c r="D45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E45">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F45">
@@ -5076,11 +5032,10 @@
         <v>1.3667076826095579E-2</v>
       </c>
       <c r="D46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E46">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5095,11 +5050,10 @@
         <v>1.469992473721504E-2</v>
       </c>
       <c r="D47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E47">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5114,11 +5068,10 @@
         <v>1.3687604106962681E-2</v>
       </c>
       <c r="D48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E48">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5133,11 +5086,10 @@
         <v>1.385749597102404E-2</v>
       </c>
       <c r="D49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E49">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5152,11 +5104,10 @@
         <v>1.371112745255232E-2</v>
       </c>
       <c r="D50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E50">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5171,11 +5122,10 @@
         <v>1.3845406472682949E-2</v>
       </c>
       <c r="D51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E51">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5190,11 +5140,10 @@
         <v>1.408721692860126E-2</v>
       </c>
       <c r="D52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E52">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5209,11 +5158,10 @@
         <v>1.382513344287872E-2</v>
       </c>
       <c r="D53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E53">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5228,11 +5176,10 @@
         <v>0.98547261953353882</v>
       </c>
       <c r="D54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E54">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F54">
@@ -5250,11 +5197,10 @@
         <v>5.826520174741745E-2</v>
       </c>
       <c r="D55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E55">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5269,11 +5215,10 @@
         <v>1.422168407589197E-2</v>
       </c>
       <c r="D56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E56">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5288,11 +5233,10 @@
         <v>3.4987583756446838E-2</v>
       </c>
       <c r="D57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E57">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5307,11 +5251,10 @@
         <v>0.98546391725540161</v>
       </c>
       <c r="D58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E58">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F58">
@@ -5329,11 +5272,10 @@
         <v>1.502970512956381E-2</v>
       </c>
       <c r="D59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E59">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5348,11 +5290,10 @@
         <v>2.417265065014362E-2</v>
       </c>
       <c r="D60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E60">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5367,11 +5308,10 @@
         <v>1.363217364996672E-2</v>
       </c>
       <c r="D61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E61">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5386,11 +5326,10 @@
         <v>0.97803771495819092</v>
       </c>
       <c r="D62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E62">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5405,11 +5344,10 @@
         <v>1.3715937733650209E-2</v>
       </c>
       <c r="D63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E63">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5424,11 +5362,10 @@
         <v>1.3809137977659701E-2</v>
       </c>
       <c r="D64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E64">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5443,11 +5380,10 @@
         <v>1.4072330668568609E-2</v>
       </c>
       <c r="D65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E65">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5462,11 +5398,10 @@
         <v>0.9719090461730957</v>
       </c>
       <c r="D66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E66">
-        <f t="shared" ref="E66:E129" si="2">IF(ISBLANK(F66),D66,F66)</f>
         <v>0</v>
       </c>
       <c r="F66">
@@ -5484,11 +5419,10 @@
         <v>1.39445997774601E-2</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D130" si="3">IF(C67&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D67:D130" si="1">IF(C67&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E67">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5503,11 +5437,10 @@
         <v>2.131442911922932E-2</v>
       </c>
       <c r="D68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E68">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5522,11 +5455,10 @@
         <v>1.3718506321311E-2</v>
       </c>
       <c r="D69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E69">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5541,11 +5473,10 @@
         <v>0.98242688179016113</v>
       </c>
       <c r="D70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E70">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F70">
@@ -5563,11 +5494,10 @@
         <v>1.359513774514198E-2</v>
       </c>
       <c r="D71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E71">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5582,11 +5512,10 @@
         <v>0.63868123292922974</v>
       </c>
       <c r="D72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E72">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5601,11 +5530,10 @@
         <v>0.98547875881195068</v>
       </c>
       <c r="D73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E73">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5620,11 +5548,10 @@
         <v>1.3871485367417341E-2</v>
       </c>
       <c r="D74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E74">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5639,11 +5566,10 @@
         <v>0.98530584573745728</v>
       </c>
       <c r="D75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E75">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F75">
@@ -5661,11 +5587,10 @@
         <v>3.4941334277391427E-2</v>
       </c>
       <c r="D76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E76">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5680,11 +5605,10 @@
         <v>0.9851914644241333</v>
       </c>
       <c r="D77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E77">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5699,11 +5623,10 @@
         <v>4.53934445977211E-2</v>
       </c>
       <c r="D78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E78">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5718,11 +5641,10 @@
         <v>0.98406767845153809</v>
       </c>
       <c r="D79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E79">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5737,11 +5659,10 @@
         <v>1.371380407363176E-2</v>
       </c>
       <c r="D80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E80">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5756,11 +5677,10 @@
         <v>1.409744657576084E-2</v>
       </c>
       <c r="D81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E81">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5775,11 +5695,10 @@
         <v>1.3682081364095209E-2</v>
       </c>
       <c r="D82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E82">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5794,11 +5713,10 @@
         <v>1.413272693753242E-2</v>
       </c>
       <c r="D83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E83">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5813,11 +5731,10 @@
         <v>1.4766651205718521E-2</v>
       </c>
       <c r="D84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E84">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5832,11 +5749,10 @@
         <v>1.4603616669774061E-2</v>
       </c>
       <c r="D85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E85">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5851,11 +5767,10 @@
         <v>3.7908442318439477E-2</v>
       </c>
       <c r="D86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E86">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5870,11 +5785,10 @@
         <v>1.423269137740135E-2</v>
       </c>
       <c r="D87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E87">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5889,11 +5803,10 @@
         <v>1.446873880922794E-2</v>
       </c>
       <c r="D88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E88">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5908,11 +5821,10 @@
         <v>1.3643224723637101E-2</v>
       </c>
       <c r="D89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E89">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5927,11 +5839,10 @@
         <v>2.3329682648181919E-2</v>
       </c>
       <c r="D90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E90">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5946,11 +5857,10 @@
         <v>1.4109977521002289E-2</v>
       </c>
       <c r="D91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E91">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5965,11 +5875,10 @@
         <v>1.5123403631150721E-2</v>
       </c>
       <c r="D92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E92">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5984,11 +5893,10 @@
         <v>0.98542952537536621</v>
       </c>
       <c r="D93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E93">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F93">
@@ -6006,11 +5914,10 @@
         <v>1.3837074860930439E-2</v>
       </c>
       <c r="D94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E94">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6025,11 +5932,10 @@
         <v>0.98547631502151489</v>
       </c>
       <c r="D95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E95">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6044,11 +5950,10 @@
         <v>0.98547399044036865</v>
       </c>
       <c r="D96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E96">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6063,11 +5968,10 @@
         <v>0.98523521423339844</v>
       </c>
       <c r="D97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E97">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6082,11 +5986,10 @@
         <v>0.98546379804611206</v>
       </c>
       <c r="D98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E98">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6101,11 +6004,10 @@
         <v>4.5731011778116233E-2</v>
       </c>
       <c r="D99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E99">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6120,11 +6022,10 @@
         <v>1.5761487185955051E-2</v>
       </c>
       <c r="D100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E100">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6139,11 +6040,10 @@
         <v>0.98547148704528809</v>
       </c>
       <c r="D101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E101">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6158,11 +6058,10 @@
         <v>1.3554629869759079E-2</v>
       </c>
       <c r="D102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E102">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6177,11 +6076,10 @@
         <v>4.6303398907184601E-2</v>
       </c>
       <c r="D103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E103">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6196,11 +6094,10 @@
         <v>1.3729601167142389E-2</v>
       </c>
       <c r="D104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6215,11 +6112,10 @@
         <v>0.92005473375320435</v>
       </c>
       <c r="D105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E105">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F105">
@@ -6237,11 +6133,10 @@
         <v>1.4037732966244221E-2</v>
       </c>
       <c r="D106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E106">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6256,11 +6151,10 @@
         <v>1.386041473597288E-2</v>
       </c>
       <c r="D107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E107">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6275,11 +6169,10 @@
         <v>0.98524415493011475</v>
       </c>
       <c r="D108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E108">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F108">
@@ -6297,11 +6190,10 @@
         <v>0.9854743480682373</v>
       </c>
       <c r="D109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E109">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6316,11 +6208,10 @@
         <v>0.98548305034637451</v>
       </c>
       <c r="D110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E110">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6335,11 +6226,10 @@
         <v>0.9853663444519043</v>
       </c>
       <c r="D111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E111">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F111">
@@ -6357,11 +6247,10 @@
         <v>0.9854665994644165</v>
       </c>
       <c r="D112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E112">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6376,11 +6265,10 @@
         <v>0.98546969890594482</v>
       </c>
       <c r="D113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E113">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6395,11 +6283,10 @@
         <v>0.9854770302772522</v>
       </c>
       <c r="D114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E114">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6414,11 +6301,10 @@
         <v>0.98546350002288818</v>
       </c>
       <c r="D115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E115">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6433,11 +6319,10 @@
         <v>0.58105790615081787</v>
       </c>
       <c r="D116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E116">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6452,11 +6337,10 @@
         <v>0.98542666435241699</v>
       </c>
       <c r="D117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E117">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6471,11 +6355,10 @@
         <v>2.3934232071042061E-2</v>
       </c>
       <c r="D118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E118">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6490,11 +6373,10 @@
         <v>1.389001589268446E-2</v>
       </c>
       <c r="D119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E119">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6509,11 +6391,10 @@
         <v>0.2177639305591583</v>
       </c>
       <c r="D120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E120">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6528,11 +6409,10 @@
         <v>1.7436625435948368E-2</v>
       </c>
       <c r="D121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E121">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6547,11 +6427,10 @@
         <v>1.432384923100471E-2</v>
       </c>
       <c r="D122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E122">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6566,11 +6445,10 @@
         <v>0.98170346021652222</v>
       </c>
       <c r="D123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E123">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6585,11 +6463,10 @@
         <v>1.659541949629784E-2</v>
       </c>
       <c r="D124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E124">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6604,11 +6481,10 @@
         <v>1.811453141272068E-2</v>
       </c>
       <c r="D125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E125">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6623,11 +6499,10 @@
         <v>1.4432813972234729E-2</v>
       </c>
       <c r="D126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E126">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6642,11 +6517,10 @@
         <v>1.386677194386721E-2</v>
       </c>
       <c r="D127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E127">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6661,11 +6535,10 @@
         <v>0.98546880483627319</v>
       </c>
       <c r="D128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E128">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F128">
@@ -6683,11 +6556,10 @@
         <v>2.1693466231226921E-2</v>
       </c>
       <c r="D129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E129">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6702,11 +6574,10 @@
         <v>1.357139647006989E-2</v>
       </c>
       <c r="D130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E130">
-        <f t="shared" ref="E130:E193" si="4">IF(ISBLANK(F130),D130,F130)</f>
         <v>0</v>
       </c>
     </row>
@@ -6721,11 +6592,10 @@
         <v>1.4026707969605919E-2</v>
       </c>
       <c r="D131">
-        <f t="shared" ref="D131:D194" si="5">IF(C131&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D131:D194" si="2">IF(C131&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E131">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6740,11 +6610,10 @@
         <v>1.367393787950277E-2</v>
       </c>
       <c r="D132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E132">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6759,11 +6628,10 @@
         <v>1.3791335746645929E-2</v>
       </c>
       <c r="D133">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E133">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6778,11 +6646,10 @@
         <v>3.3117540180683143E-2</v>
       </c>
       <c r="D134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E134">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6797,11 +6664,10 @@
         <v>1.419706456363201E-2</v>
       </c>
       <c r="D135">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E135">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6816,11 +6682,10 @@
         <v>0.21743835508823389</v>
       </c>
       <c r="D136">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E136">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6835,11 +6700,10 @@
         <v>1.374990958720446E-2</v>
       </c>
       <c r="D137">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E137">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6854,11 +6718,10 @@
         <v>2.3927031084895131E-2</v>
       </c>
       <c r="D138">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E138">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6873,11 +6736,10 @@
         <v>1.364155579358339E-2</v>
       </c>
       <c r="D139">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E139">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6892,11 +6754,10 @@
         <v>1.6450304538011551E-2</v>
       </c>
       <c r="D140">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E140">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6911,11 +6772,10 @@
         <v>1.383894961327314E-2</v>
       </c>
       <c r="D141">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E141">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6930,11 +6790,10 @@
         <v>0.98548305034637451</v>
       </c>
       <c r="D142">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E142">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -6949,11 +6808,10 @@
         <v>1.3679058291018009E-2</v>
       </c>
       <c r="D143">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E143">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6968,11 +6826,10 @@
         <v>0.2176501601934433</v>
       </c>
       <c r="D144">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E144">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6987,11 +6844,10 @@
         <v>0.98479247093200684</v>
       </c>
       <c r="D145">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E145">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F145">
@@ -7009,11 +6865,10 @@
         <v>1.822740770876408E-2</v>
       </c>
       <c r="D146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E146">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7028,11 +6883,10 @@
         <v>1.7850743606686589E-2</v>
       </c>
       <c r="D147">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E147">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7047,11 +6901,10 @@
         <v>1.4321506023406981E-2</v>
       </c>
       <c r="D148">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E148">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7066,11 +6919,10 @@
         <v>0.1323151886463165</v>
       </c>
       <c r="D149">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E149">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7085,11 +6937,10 @@
         <v>1.7850743606686589E-2</v>
       </c>
       <c r="D150">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E150">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7104,11 +6955,10 @@
         <v>5.8915596455335617E-2</v>
       </c>
       <c r="D151">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E151">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7123,11 +6973,10 @@
         <v>0.9817882776260376</v>
       </c>
       <c r="D152">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E152">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F152">
@@ -7145,11 +6994,10 @@
         <v>2.9663234949111938E-2</v>
       </c>
       <c r="D153">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E153">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7164,11 +7012,10 @@
         <v>1.3746043667197229E-2</v>
       </c>
       <c r="D154">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E154">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7183,11 +7030,10 @@
         <v>1.368314959108829E-2</v>
       </c>
       <c r="D155">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E155">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7202,11 +7048,10 @@
         <v>1.4906966127455229E-2</v>
       </c>
       <c r="D156">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E156">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7221,11 +7066,10 @@
         <v>2.1008327603340149E-2</v>
       </c>
       <c r="D157">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E157">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7240,11 +7084,10 @@
         <v>1.363757904618979E-2</v>
       </c>
       <c r="D158">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E158">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7259,11 +7102,10 @@
         <v>1.5668589621782299E-2</v>
       </c>
       <c r="D159">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E159">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7278,11 +7120,10 @@
         <v>1.5626410022377971E-2</v>
       </c>
       <c r="D160">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E160">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7297,11 +7138,10 @@
         <v>0.98546266555786133</v>
       </c>
       <c r="D161">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E161">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F161">
@@ -7319,11 +7159,10 @@
         <v>1.370571181178093E-2</v>
       </c>
       <c r="D162">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E162">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7338,11 +7177,10 @@
         <v>1.483773905783892E-2</v>
       </c>
       <c r="D163">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E163">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7357,11 +7195,10 @@
         <v>1.370571181178093E-2</v>
       </c>
       <c r="D164">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E164">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7376,11 +7213,10 @@
         <v>1.377677731215954E-2</v>
       </c>
       <c r="D165">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E165">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7395,11 +7231,10 @@
         <v>1.398750487715006E-2</v>
       </c>
       <c r="D166">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E166">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7414,11 +7249,10 @@
         <v>1.374409161508083E-2</v>
       </c>
       <c r="D167">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E167">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7433,11 +7267,10 @@
         <v>1.359263062477112E-2</v>
       </c>
       <c r="D168">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E168">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7452,11 +7285,10 @@
         <v>1.3910100795328621E-2</v>
       </c>
       <c r="D169">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E169">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7471,11 +7303,10 @@
         <v>1.3582213781774041E-2</v>
       </c>
       <c r="D170">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E170">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7490,11 +7321,10 @@
         <v>1.362946163862944E-2</v>
       </c>
       <c r="D171">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E171">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7509,11 +7339,10 @@
         <v>1.366457715630531E-2</v>
       </c>
       <c r="D172">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E172">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7528,11 +7357,10 @@
         <v>1.368931028991938E-2</v>
       </c>
       <c r="D173">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E173">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7547,11 +7375,10 @@
         <v>1.359126903116703E-2</v>
       </c>
       <c r="D174">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E174">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7566,11 +7393,10 @@
         <v>1.372204255312681E-2</v>
       </c>
       <c r="D175">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E175">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7585,11 +7411,10 @@
         <v>1.9509134814143181E-2</v>
       </c>
       <c r="D176">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E176">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7604,11 +7429,10 @@
         <v>0.82726502418518066</v>
       </c>
       <c r="D177">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E177">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F177">
@@ -7626,11 +7450,10 @@
         <v>1.4095630496740339E-2</v>
       </c>
       <c r="D178">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E178">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7645,11 +7468,10 @@
         <v>0.98547470569610596</v>
       </c>
       <c r="D179">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E179">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -7664,11 +7486,10 @@
         <v>3.4227747470140457E-2</v>
       </c>
       <c r="D180">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E180">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7683,11 +7504,10 @@
         <v>1.377851981669664E-2</v>
       </c>
       <c r="D181">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E181">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7702,11 +7522,10 @@
         <v>0.9832836389541626</v>
       </c>
       <c r="D182">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E182">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -7721,11 +7540,10 @@
         <v>0.98544585704803467</v>
       </c>
       <c r="D183">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E183">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F183">
@@ -7743,11 +7561,10 @@
         <v>3.008844330906868E-2</v>
       </c>
       <c r="D184">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E184">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7762,11 +7579,10 @@
         <v>1.4508760534226889E-2</v>
       </c>
       <c r="D185">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E185">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7781,11 +7597,10 @@
         <v>4.3529082089662552E-2</v>
       </c>
       <c r="D186">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E186">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7800,11 +7615,10 @@
         <v>0.96052324771881104</v>
       </c>
       <c r="D187">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E187">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F187">
@@ -7822,11 +7636,10 @@
         <v>2.4377662688493729E-2</v>
       </c>
       <c r="D188">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E188">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7841,11 +7654,10 @@
         <v>1.3815249316394331E-2</v>
       </c>
       <c r="D189">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E189">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7860,11 +7672,10 @@
         <v>1.379990670830011E-2</v>
       </c>
       <c r="D190">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E190">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7879,11 +7690,10 @@
         <v>1.4023432508111E-2</v>
       </c>
       <c r="D191">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E191">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7898,11 +7708,10 @@
         <v>1.367802172899246E-2</v>
       </c>
       <c r="D192">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E192">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7917,11 +7726,10 @@
         <v>1.7745755612850189E-2</v>
       </c>
       <c r="D193">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E193">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7936,11 +7744,10 @@
         <v>0.85459882020950317</v>
       </c>
       <c r="D194">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E194">
-        <f t="shared" ref="E194:E257" si="6">IF(ISBLANK(F194),D194,F194)</f>
         <v>0</v>
       </c>
       <c r="F194">
@@ -7958,11 +7765,10 @@
         <v>1.463430561125278E-2</v>
       </c>
       <c r="D195">
-        <f t="shared" ref="D195:D258" si="7">IF(C195&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D195:D258" si="3">IF(C195&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E195">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7977,11 +7783,10 @@
         <v>1.3635597191751E-2</v>
       </c>
       <c r="D196">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E196">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7996,11 +7801,10 @@
         <v>1.3626569882035261E-2</v>
       </c>
       <c r="D197">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E197">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8015,11 +7819,10 @@
         <v>0.98520201444625854</v>
       </c>
       <c r="D198">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E198">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -8034,11 +7837,10 @@
         <v>3.7637539207935333E-2</v>
       </c>
       <c r="D199">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E199">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8053,11 +7855,10 @@
         <v>1.385224424302578E-2</v>
       </c>
       <c r="D200">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E200">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8072,11 +7873,10 @@
         <v>0.9850737452507019</v>
       </c>
       <c r="D201">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E201">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F201">
@@ -8094,11 +7894,10 @@
         <v>1.4289171434938909E-2</v>
       </c>
       <c r="D202">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E202">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8113,11 +7912,10 @@
         <v>1.355415210127831E-2</v>
       </c>
       <c r="D203">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E203">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8132,11 +7930,10 @@
         <v>1.356427930295467E-2</v>
       </c>
       <c r="D204">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E204">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8151,11 +7948,10 @@
         <v>1.391668897122145E-2</v>
       </c>
       <c r="D205">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E205">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8170,11 +7966,10 @@
         <v>1.3622026890516279E-2</v>
       </c>
       <c r="D206">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E206">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8189,11 +7984,10 @@
         <v>1.3629108667373661E-2</v>
       </c>
       <c r="D207">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E207">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8208,11 +8002,10 @@
         <v>1.385603006929159E-2</v>
       </c>
       <c r="D208">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E208">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8227,11 +8020,10 @@
         <v>1.5153946354985241E-2</v>
       </c>
       <c r="D209">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E209">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8246,11 +8038,10 @@
         <v>2.7075778692960739E-2</v>
       </c>
       <c r="D210">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E210">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8265,11 +8056,10 @@
         <v>5.4829496890306473E-2</v>
       </c>
       <c r="D211">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E211">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8284,11 +8074,10 @@
         <v>2.295261062681675E-2</v>
       </c>
       <c r="D212">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E212">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8303,11 +8092,10 @@
         <v>1.3922048732638361E-2</v>
       </c>
       <c r="D213">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E213">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8322,11 +8110,10 @@
         <v>0.98142081499099731</v>
       </c>
       <c r="D214">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E214">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -8341,11 +8128,10 @@
         <v>0.98525547981262207</v>
       </c>
       <c r="D215">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E215">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -8360,11 +8146,10 @@
         <v>0.98542529344558716</v>
       </c>
       <c r="D216">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E216">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F216">
@@ -8382,11 +8167,10 @@
         <v>1.366718020290136E-2</v>
       </c>
       <c r="D217">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E217">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8401,11 +8185,10 @@
         <v>0.98485374450683594</v>
       </c>
       <c r="D218">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E218">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -8420,11 +8203,10 @@
         <v>0.98548942804336548</v>
       </c>
       <c r="D219">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E219">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -8439,11 +8221,10 @@
         <v>3.5171940922737122E-2</v>
       </c>
       <c r="D220">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E220">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8458,11 +8239,10 @@
         <v>1.391742844134569E-2</v>
       </c>
       <c r="D221">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E221">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8477,11 +8257,10 @@
         <v>0.985481858253479</v>
       </c>
       <c r="D222">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E222">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -8496,11 +8275,10 @@
         <v>0.98548144102096558</v>
       </c>
       <c r="D223">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E223">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -8515,11 +8293,10 @@
         <v>0.98544979095458984</v>
       </c>
       <c r="D224">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E224">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -8534,11 +8311,10 @@
         <v>0.98500281572341919</v>
       </c>
       <c r="D225">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E225">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -8553,11 +8329,10 @@
         <v>1.4410313218832019E-2</v>
       </c>
       <c r="D226">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E226">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8572,11 +8347,10 @@
         <v>1.3620989397168159E-2</v>
       </c>
       <c r="D227">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E227">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8591,11 +8365,10 @@
         <v>1.3991379179060459E-2</v>
       </c>
       <c r="D228">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E228">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8610,11 +8383,10 @@
         <v>1.7279645428061489E-2</v>
       </c>
       <c r="D229">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E229">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8629,11 +8401,10 @@
         <v>1.3669712468981739E-2</v>
       </c>
       <c r="D230">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E230">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8648,11 +8419,10 @@
         <v>1.382587570697069E-2</v>
       </c>
       <c r="D231">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E231">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8667,11 +8437,10 @@
         <v>0.76234936714172363</v>
       </c>
       <c r="D232">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E232">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -8686,11 +8455,10 @@
         <v>2.7700755745172501E-2</v>
       </c>
       <c r="D233">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E233">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8705,11 +8473,10 @@
         <v>3.2149434089660638E-2</v>
       </c>
       <c r="D234">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E234">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8724,11 +8491,10 @@
         <v>1.4393703080713751E-2</v>
       </c>
       <c r="D235">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E235">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8743,11 +8509,10 @@
         <v>1.357610058039427E-2</v>
       </c>
       <c r="D236">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E236">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8762,11 +8527,10 @@
         <v>0.98501759767532349</v>
       </c>
       <c r="D237">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E237">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -8781,11 +8545,10 @@
         <v>1.3927417807281021E-2</v>
       </c>
       <c r="D238">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E238">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8800,11 +8563,10 @@
         <v>1.63275171071291E-2</v>
       </c>
       <c r="D239">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E239">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8819,11 +8581,10 @@
         <v>1.538786664605141E-2</v>
       </c>
       <c r="D240">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E240">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8838,11 +8599,10 @@
         <v>1.3782667927443979E-2</v>
       </c>
       <c r="D241">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E241">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8857,11 +8617,10 @@
         <v>1.3652339577674869E-2</v>
       </c>
       <c r="D242">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E242">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8876,11 +8635,10 @@
         <v>1.362315565347672E-2</v>
       </c>
       <c r="D243">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E243">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8895,11 +8653,10 @@
         <v>1.3625858351588249E-2</v>
       </c>
       <c r="D244">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E244">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8914,11 +8671,10 @@
         <v>0.98548084497451782</v>
       </c>
       <c r="D245">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E245">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -8933,11 +8689,10 @@
         <v>1.3956497423350809E-2</v>
       </c>
       <c r="D246">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E246">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8952,11 +8707,10 @@
         <v>0.98548394441604614</v>
       </c>
       <c r="D247">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E247">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -8971,11 +8725,10 @@
         <v>1.4406087808310991E-2</v>
       </c>
       <c r="D248">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E248">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8990,11 +8743,10 @@
         <v>2.5415742769837379E-2</v>
       </c>
       <c r="D249">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E249">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9009,11 +8761,10 @@
         <v>9.5170997083187103E-2</v>
       </c>
       <c r="D250">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E250">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9028,11 +8779,10 @@
         <v>1.3935725204646591E-2</v>
       </c>
       <c r="D251">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E251">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9047,11 +8797,10 @@
         <v>1.373156998306513E-2</v>
       </c>
       <c r="D252">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E252">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9066,11 +8815,10 @@
         <v>1.406173035502434E-2</v>
       </c>
       <c r="D253">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E253">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9085,11 +8833,10 @@
         <v>1.681884191930294E-2</v>
       </c>
       <c r="D254">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E254">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9104,11 +8851,10 @@
         <v>1.390819251537323E-2</v>
       </c>
       <c r="D255">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E255">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9123,11 +8869,10 @@
         <v>0.93368792533874512</v>
       </c>
       <c r="D256">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E256">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -9142,11 +8887,10 @@
         <v>1.378693338483572E-2</v>
       </c>
       <c r="D257">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E257">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9161,11 +8905,10 @@
         <v>1.395395211875439E-2</v>
       </c>
       <c r="D258">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E258">
-        <f t="shared" ref="E258:E321" si="8">IF(ISBLANK(F258),D258,F258)</f>
         <v>0</v>
       </c>
     </row>
@@ -9180,11 +8923,10 @@
         <v>1.408081501722336E-2</v>
       </c>
       <c r="D259">
-        <f t="shared" ref="D259:D322" si="9">IF(C259&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D259:D322" si="4">IF(C259&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E259">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9199,11 +8941,10 @@
         <v>1.382267102599144E-2</v>
       </c>
       <c r="D260">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E260">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9218,11 +8959,10 @@
         <v>1.5493199229240419E-2</v>
       </c>
       <c r="D261">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E261">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9237,11 +8977,10 @@
         <v>1.6779495403170589E-2</v>
       </c>
       <c r="D262">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E262">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9256,11 +8995,10 @@
         <v>1.790139265358448E-2</v>
       </c>
       <c r="D263">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E263">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9275,11 +9013,10 @@
         <v>1.3610773719847201E-2</v>
       </c>
       <c r="D264">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E264">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9294,11 +9031,10 @@
         <v>0.98506075143814087</v>
       </c>
       <c r="D265">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E265">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F265">
@@ -9316,11 +9052,10 @@
         <v>3.4405313432216637E-2</v>
       </c>
       <c r="D266">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E266">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9335,11 +9070,10 @@
         <v>1.436612848192453E-2</v>
       </c>
       <c r="D267">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E267">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9354,11 +9088,10 @@
         <v>1.463856361806393E-2</v>
       </c>
       <c r="D268">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E268">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9373,11 +9106,10 @@
         <v>0.98171103000640869</v>
       </c>
       <c r="D269">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E269">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F269">
@@ -9395,11 +9127,10 @@
         <v>0.92365968227386475</v>
       </c>
       <c r="D270">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E270">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F270">
@@ -9417,11 +9148,10 @@
         <v>1.3745902106165889E-2</v>
       </c>
       <c r="D271">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E271">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9436,11 +9166,10 @@
         <v>1.391147542744875E-2</v>
       </c>
       <c r="D272">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E272">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9455,11 +9184,10 @@
         <v>1.7096580937504768E-2</v>
       </c>
       <c r="D273">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E273">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9474,11 +9202,10 @@
         <v>0.95986932516098022</v>
       </c>
       <c r="D274">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E274">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -9493,11 +9220,10 @@
         <v>1.6834059730172161E-2</v>
       </c>
       <c r="D275">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E275">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9512,11 +9238,10 @@
         <v>0.95298463106155396</v>
       </c>
       <c r="D276">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E276">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F276">
@@ -9534,11 +9259,10 @@
         <v>0.98526102304458618</v>
       </c>
       <c r="D277">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E277">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -9553,11 +9277,10 @@
         <v>0.98488748073577881</v>
       </c>
       <c r="D278">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E278">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -9572,11 +9295,10 @@
         <v>0.98547101020812988</v>
       </c>
       <c r="D279">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E279">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -9591,11 +9313,10 @@
         <v>0.98546415567398071</v>
       </c>
       <c r="D280">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E280">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -9610,11 +9331,10 @@
         <v>1.6805710271000859E-2</v>
       </c>
       <c r="D281">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E281">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9629,11 +9349,10 @@
         <v>1.4367323368787771E-2</v>
       </c>
       <c r="D282">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E282">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9648,11 +9367,10 @@
         <v>1.3981331139802929E-2</v>
       </c>
       <c r="D283">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E283">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9667,11 +9385,10 @@
         <v>1.474948413670063E-2</v>
       </c>
       <c r="D284">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E284">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9686,11 +9403,10 @@
         <v>0.98547297716140747</v>
       </c>
       <c r="D285">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E285">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -9705,11 +9421,10 @@
         <v>0.88613933324813843</v>
       </c>
       <c r="D286">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E286">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -9724,11 +9439,10 @@
         <v>1.7012361437082291E-2</v>
       </c>
       <c r="D287">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E287">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9743,11 +9457,10 @@
         <v>0.63868123292922974</v>
       </c>
       <c r="D288">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E288">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -9762,11 +9475,10 @@
         <v>0.98548024892807007</v>
       </c>
       <c r="D289">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E289">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -9781,11 +9493,10 @@
         <v>1.3678594492375851E-2</v>
       </c>
       <c r="D290">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E290">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9800,11 +9511,10 @@
         <v>2.0327504724264141E-2</v>
       </c>
       <c r="D291">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E291">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9819,11 +9529,10 @@
         <v>0.98546451330184937</v>
       </c>
       <c r="D292">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E292">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -9838,11 +9547,10 @@
         <v>0.95077002048492432</v>
       </c>
       <c r="D293">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E293">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -9857,11 +9565,10 @@
         <v>9.112190455198288E-2</v>
       </c>
       <c r="D294">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E294">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9876,11 +9583,10 @@
         <v>1.440185029059649E-2</v>
       </c>
       <c r="D295">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E295">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9895,11 +9601,10 @@
         <v>1.389323640614748E-2</v>
       </c>
       <c r="D296">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E296">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9914,11 +9619,10 @@
         <v>1.4377543702721599E-2</v>
       </c>
       <c r="D297">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E297">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9933,11 +9637,10 @@
         <v>1.425596419721842E-2</v>
       </c>
       <c r="D298">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E298">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9952,11 +9655,10 @@
         <v>1.369383744895458E-2</v>
       </c>
       <c r="D299">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E299">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9971,11 +9673,10 @@
         <v>0.98544055223464966</v>
       </c>
       <c r="D300">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E300">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F300">
@@ -9993,11 +9694,10 @@
         <v>1.626536995172501E-2</v>
       </c>
       <c r="D301">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E301">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10012,11 +9712,10 @@
         <v>0.98406684398651123</v>
       </c>
       <c r="D302">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E302">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -10031,11 +9730,10 @@
         <v>1.3824977912008761E-2</v>
       </c>
       <c r="D303">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E303">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10050,11 +9748,10 @@
         <v>1.378058735281229E-2</v>
       </c>
       <c r="D304">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E304">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10069,11 +9766,10 @@
         <v>1.4028694480657579E-2</v>
       </c>
       <c r="D305">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E305">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10088,11 +9784,10 @@
         <v>1.3634455390274519E-2</v>
       </c>
       <c r="D306">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E306">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10107,11 +9802,10 @@
         <v>1.4162096194922921E-2</v>
       </c>
       <c r="D307">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E307">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10126,11 +9820,10 @@
         <v>4.623035341501236E-2</v>
       </c>
       <c r="D308">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E308">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10145,11 +9838,10 @@
         <v>1.4063818380236629E-2</v>
       </c>
       <c r="D309">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E309">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10164,11 +9856,10 @@
         <v>1.3813748024404051E-2</v>
       </c>
       <c r="D310">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E310">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10183,11 +9874,10 @@
         <v>0.86427277326583862</v>
       </c>
       <c r="D311">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E311">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F311">
@@ -10205,11 +9895,10 @@
         <v>0.21736536920070651</v>
       </c>
       <c r="D312">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E312">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10224,11 +9913,10 @@
         <v>0.21746671199798581</v>
       </c>
       <c r="D313">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E313">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10243,11 +9931,10 @@
         <v>1.3689464889466761E-2</v>
       </c>
       <c r="D314">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E314">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10262,11 +9949,10 @@
         <v>0.21188269555568701</v>
       </c>
       <c r="D315">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E315">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10281,11 +9967,10 @@
         <v>0.98485434055328369</v>
       </c>
       <c r="D316">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E316">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F316">
@@ -10303,11 +9988,10 @@
         <v>1.3721977360546591E-2</v>
       </c>
       <c r="D317">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E317">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10322,11 +10006,10 @@
         <v>1.3758403249084949E-2</v>
       </c>
       <c r="D318">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E318">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10341,11 +10024,10 @@
         <v>1.3915662653744221E-2</v>
       </c>
       <c r="D319">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E319">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10360,11 +10042,10 @@
         <v>1.4382653869688509E-2</v>
       </c>
       <c r="D320">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E320">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10379,11 +10060,10 @@
         <v>1.406595483422279E-2</v>
       </c>
       <c r="D321">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E321">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10398,11 +10078,10 @@
         <v>0.98539668321609497</v>
       </c>
       <c r="D322">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E322">
-        <f t="shared" ref="E322:E385" si="10">IF(ISBLANK(F322),D322,F322)</f>
         <v>1</v>
       </c>
     </row>
@@ -10417,11 +10096,10 @@
         <v>1.3952272012829781E-2</v>
       </c>
       <c r="D323">
-        <f t="shared" ref="D323:D386" si="11">IF(C323&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D323:D386" si="5">IF(C323&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E323">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10436,11 +10114,10 @@
         <v>0.9831993579864502</v>
       </c>
       <c r="D324">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E324">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F324">
@@ -10458,11 +10135,10 @@
         <v>0.98473870754241943</v>
       </c>
       <c r="D325">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E325">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F325">
@@ -10480,11 +10156,10 @@
         <v>0.98530572652816772</v>
       </c>
       <c r="D326">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E326">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F326">
@@ -10502,11 +10177,10 @@
         <v>1.5140203759074209E-2</v>
       </c>
       <c r="D327">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E327">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10521,11 +10195,10 @@
         <v>2.9230294749140739E-2</v>
       </c>
       <c r="D328">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E328">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10540,11 +10213,10 @@
         <v>2.1887278184294701E-2</v>
       </c>
       <c r="D329">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E329">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10559,11 +10231,10 @@
         <v>1.6806112602353099E-2</v>
       </c>
       <c r="D330">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E330">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10578,11 +10249,10 @@
         <v>1.5904936939477921E-2</v>
       </c>
       <c r="D331">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E331">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10597,11 +10267,10 @@
         <v>1.8313532695174221E-2</v>
       </c>
       <c r="D332">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E332">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10616,11 +10285,10 @@
         <v>1.6711808741092678E-2</v>
       </c>
       <c r="D333">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E333">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10635,11 +10303,10 @@
         <v>1.4517496339976789E-2</v>
       </c>
       <c r="D334">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E334">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10654,11 +10321,10 @@
         <v>1.995785720646381E-2</v>
       </c>
       <c r="D335">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E335">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10673,11 +10339,10 @@
         <v>0.21745273470878601</v>
       </c>
       <c r="D336">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E336">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10692,11 +10357,10 @@
         <v>0.9853672981262207</v>
       </c>
       <c r="D337">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E337">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -10711,11 +10375,10 @@
         <v>0.98502522706985474</v>
       </c>
       <c r="D338">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E338">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F338">
@@ -10733,11 +10396,10 @@
         <v>1.379020791500807E-2</v>
       </c>
       <c r="D339">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E339">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10752,11 +10414,10 @@
         <v>1.3574414886534211E-2</v>
       </c>
       <c r="D340">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E340">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10771,11 +10432,10 @@
         <v>1.394233014434576E-2</v>
       </c>
       <c r="D341">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E341">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10790,11 +10450,10 @@
         <v>1.367493532598019E-2</v>
       </c>
       <c r="D342">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E342">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10809,11 +10468,10 @@
         <v>2.6964243501424789E-2</v>
       </c>
       <c r="D343">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E343">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10828,11 +10486,10 @@
         <v>2.267390675842762E-2</v>
       </c>
       <c r="D344">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E344">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10847,11 +10504,10 @@
         <v>1.400234922766685E-2</v>
       </c>
       <c r="D345">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E345">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10866,11 +10522,10 @@
         <v>1.366808079183102E-2</v>
       </c>
       <c r="D346">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E346">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10885,11 +10540,10 @@
         <v>0.21753817796707151</v>
       </c>
       <c r="D347">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E347">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10904,11 +10558,10 @@
         <v>1.36014511808753E-2</v>
       </c>
       <c r="D348">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E348">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10923,11 +10576,10 @@
         <v>1.388624217361212E-2</v>
       </c>
       <c r="D349">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E349">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10942,11 +10594,10 @@
         <v>1.374481525272131E-2</v>
       </c>
       <c r="D350">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E350">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10961,11 +10612,10 @@
         <v>1.372612174600363E-2</v>
       </c>
       <c r="D351">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E351">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10980,11 +10630,10 @@
         <v>1.3630717992782589E-2</v>
       </c>
       <c r="D352">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E352">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10999,11 +10648,10 @@
         <v>1.378943677991629E-2</v>
       </c>
       <c r="D353">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E353">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11018,11 +10666,10 @@
         <v>1.5782700851559639E-2</v>
       </c>
       <c r="D354">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E354">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11037,11 +10684,10 @@
         <v>1.3616352342069151E-2</v>
       </c>
       <c r="D355">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E355">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11056,11 +10702,10 @@
         <v>2.9322883114218708E-2</v>
       </c>
       <c r="D356">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E356">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11075,11 +10720,10 @@
         <v>1.483503542840481E-2</v>
       </c>
       <c r="D357">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E357">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11094,11 +10738,10 @@
         <v>1.3626269996166229E-2</v>
       </c>
       <c r="D358">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E358">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11113,11 +10756,10 @@
         <v>1.3567004352808E-2</v>
       </c>
       <c r="D359">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E359">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11132,11 +10774,10 @@
         <v>1.3855938799679279E-2</v>
       </c>
       <c r="D360">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E360">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11151,11 +10792,10 @@
         <v>1.451924256980419E-2</v>
       </c>
       <c r="D361">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E361">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11170,11 +10810,10 @@
         <v>1.389944460242987E-2</v>
       </c>
       <c r="D362">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E362">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11189,11 +10828,10 @@
         <v>1.372659206390381E-2</v>
       </c>
       <c r="D363">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E363">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11208,11 +10846,10 @@
         <v>2.79072429984808E-2</v>
       </c>
       <c r="D364">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E364">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11227,11 +10864,10 @@
         <v>0.9262012243270874</v>
       </c>
       <c r="D365">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E365">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F365">
@@ -11249,11 +10885,10 @@
         <v>0.9754786491394043</v>
       </c>
       <c r="D366">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E366">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F366">
@@ -11271,11 +10906,10 @@
         <v>0.98527443408966064</v>
       </c>
       <c r="D367">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E367">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F367">
@@ -11293,11 +10927,10 @@
         <v>0.98505532741546631</v>
       </c>
       <c r="D368">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E368">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F368">
@@ -11315,11 +10948,10 @@
         <v>0.98477423191070557</v>
       </c>
       <c r="D369">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E369">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F369">
@@ -11337,11 +10969,10 @@
         <v>1.361035834997892E-2</v>
       </c>
       <c r="D370">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E370">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11356,11 +10987,10 @@
         <v>0.98540800809860229</v>
       </c>
       <c r="D371">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E371">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F371">
@@ -11378,11 +11008,10 @@
         <v>4.051615297794342E-2</v>
       </c>
       <c r="D372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E372">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11397,11 +11026,10 @@
         <v>1.3814639300107959E-2</v>
       </c>
       <c r="D373">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E373">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11416,11 +11044,10 @@
         <v>1.361521240323782E-2</v>
       </c>
       <c r="D374">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E374">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11435,11 +11062,10 @@
         <v>1.3989700935781E-2</v>
       </c>
       <c r="D375">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E375">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11454,11 +11080,10 @@
         <v>0.9854164719581604</v>
       </c>
       <c r="D376">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E376">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F376">
@@ -11476,11 +11101,10 @@
         <v>1.4988093636929991E-2</v>
       </c>
       <c r="D377">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E377">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11495,11 +11119,10 @@
         <v>1.366983540356159E-2</v>
       </c>
       <c r="D378">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E378">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11514,11 +11137,10 @@
         <v>1.4286277815699581E-2</v>
       </c>
       <c r="D379">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E379">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11533,11 +11155,10 @@
         <v>0.98492056131362915</v>
       </c>
       <c r="D380">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E380">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F380">
@@ -11555,11 +11176,10 @@
         <v>1.374481525272131E-2</v>
       </c>
       <c r="D381">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E381">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11574,11 +11194,10 @@
         <v>1.4284182339906691E-2</v>
       </c>
       <c r="D382">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E382">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11593,11 +11212,10 @@
         <v>0.94105970859527588</v>
       </c>
       <c r="D383">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E383">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F383">
@@ -11615,11 +11233,10 @@
         <v>1.4659549109637741E-2</v>
       </c>
       <c r="D384">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E384">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11634,11 +11251,10 @@
         <v>0.98520594835281372</v>
       </c>
       <c r="D385">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E385">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F385">
@@ -11656,11 +11272,10 @@
         <v>0.9222872257232666</v>
       </c>
       <c r="D386">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E386">
-        <f t="shared" ref="E386:E449" si="12">IF(ISBLANK(F386),D386,F386)</f>
         <v>1</v>
       </c>
     </row>
@@ -11675,11 +11290,10 @@
         <v>1.9177917391061779E-2</v>
       </c>
       <c r="D387">
-        <f t="shared" ref="D387:D450" si="13">IF(C387&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D387:D450" si="6">IF(C387&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E387">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11694,11 +11308,10 @@
         <v>3.076636977493763E-2</v>
       </c>
       <c r="D388">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E388">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11713,11 +11326,10 @@
         <v>0.63782221078872681</v>
       </c>
       <c r="D389">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E389">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F389">
@@ -11735,11 +11347,10 @@
         <v>1.4063898473978039E-2</v>
       </c>
       <c r="D390">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E390">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11754,11 +11365,10 @@
         <v>1.446003094315529E-2</v>
       </c>
       <c r="D391">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E391">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11773,11 +11383,10 @@
         <v>0.98504638671875</v>
       </c>
       <c r="D392">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E392">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -11792,11 +11401,10 @@
         <v>0.13557036221027369</v>
       </c>
       <c r="D393">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E393">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11811,11 +11419,10 @@
         <v>5.0019338726997382E-2</v>
       </c>
       <c r="D394">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E394">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11830,11 +11437,10 @@
         <v>0.98538857698440552</v>
       </c>
       <c r="D395">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E395">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F395">
@@ -11852,11 +11458,10 @@
         <v>1.453172788023949E-2</v>
       </c>
       <c r="D396">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E396">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11871,11 +11476,10 @@
         <v>0.98547029495239258</v>
       </c>
       <c r="D397">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E397">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -11890,11 +11494,10 @@
         <v>1.778085716068745E-2</v>
       </c>
       <c r="D398">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E398">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11909,11 +11512,10 @@
         <v>0.9854775071144104</v>
       </c>
       <c r="D399">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E399">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -11928,11 +11530,10 @@
         <v>0.1048446595668793</v>
       </c>
       <c r="D400">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E400">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11947,11 +11548,10 @@
         <v>0.98178768157958984</v>
       </c>
       <c r="D401">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E401">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F401">
@@ -11969,11 +11569,10 @@
         <v>1.579771563410759E-2</v>
       </c>
       <c r="D402">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E402">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11988,11 +11587,10 @@
         <v>1.9582523033022881E-2</v>
       </c>
       <c r="D403">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E403">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12007,11 +11605,10 @@
         <v>4.8226833343505859E-2</v>
       </c>
       <c r="D404">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E404">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12026,11 +11623,10 @@
         <v>1.783606223762035E-2</v>
       </c>
       <c r="D405">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E405">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12045,11 +11641,10 @@
         <v>1.3927130959928039E-2</v>
       </c>
       <c r="D406">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E406">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12064,11 +11659,10 @@
         <v>1.3998406007885929E-2</v>
       </c>
       <c r="D407">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E407">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12083,11 +11677,10 @@
         <v>1.383315864950418E-2</v>
       </c>
       <c r="D408">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E408">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12102,11 +11695,10 @@
         <v>2.1598035469651219E-2</v>
       </c>
       <c r="D409">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E409">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12121,11 +11713,10 @@
         <v>4.0410492569208152E-2</v>
       </c>
       <c r="D410">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E410">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12140,11 +11731,10 @@
         <v>1.408068183809519E-2</v>
       </c>
       <c r="D411">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E411">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12159,11 +11749,10 @@
         <v>1.529903989285231E-2</v>
       </c>
       <c r="D412">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E412">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12178,11 +11767,10 @@
         <v>1.7615823075175289E-2</v>
       </c>
       <c r="D413">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E413">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12197,11 +11785,10 @@
         <v>4.5804683119058609E-2</v>
       </c>
       <c r="D414">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E414">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12216,11 +11803,10 @@
         <v>0.98545944690704346</v>
       </c>
       <c r="D415">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E415">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -12235,11 +11821,10 @@
         <v>0.98437619209289551</v>
       </c>
       <c r="D416">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E416">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -12254,11 +11839,10 @@
         <v>2.89030522108078E-2</v>
       </c>
       <c r="D417">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E417">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12273,11 +11857,10 @@
         <v>1.3742604292929171E-2</v>
       </c>
       <c r="D418">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E418">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12292,11 +11875,10 @@
         <v>0.98547953367233276</v>
       </c>
       <c r="D419">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E419">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -12311,11 +11893,10 @@
         <v>0.97357088327407837</v>
       </c>
       <c r="D420">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E420">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -12330,11 +11911,10 @@
         <v>3.4618064761161797E-2</v>
       </c>
       <c r="D421">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E421">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12349,11 +11929,10 @@
         <v>0.98541927337646484</v>
       </c>
       <c r="D422">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E422">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -12368,11 +11947,10 @@
         <v>3.3618856221437447E-2</v>
       </c>
       <c r="D423">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E423">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12387,11 +11965,10 @@
         <v>1.3539948500692839E-2</v>
       </c>
       <c r="D424">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E424">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12406,11 +11983,10 @@
         <v>0.21783192455768591</v>
       </c>
       <c r="D425">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E425">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12425,11 +12001,10 @@
         <v>3.9238058030605323E-2</v>
       </c>
       <c r="D426">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E426">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12444,11 +12019,10 @@
         <v>4.0293719619512558E-2</v>
       </c>
       <c r="D427">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E427">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12463,11 +12037,10 @@
         <v>1.423345506191254E-2</v>
       </c>
       <c r="D428">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E428">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12482,11 +12055,10 @@
         <v>0.98548245429992676</v>
       </c>
       <c r="D429">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E429">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -12501,11 +12073,10 @@
         <v>0.98528903722763062</v>
       </c>
       <c r="D430">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E430">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F430">
@@ -12523,11 +12094,10 @@
         <v>1.40683613717556E-2</v>
       </c>
       <c r="D431">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E431">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12542,11 +12112,10 @@
         <v>1.379892602562904E-2</v>
       </c>
       <c r="D432">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E432">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12561,11 +12130,10 @@
         <v>3.4197811037302017E-2</v>
       </c>
       <c r="D433">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E433">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12580,11 +12148,10 @@
         <v>5.8826487511396408E-2</v>
       </c>
       <c r="D434">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E434">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12599,11 +12166,10 @@
         <v>0.98397499322891235</v>
       </c>
       <c r="D435">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E435">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F435">
@@ -12621,11 +12187,10 @@
         <v>1.460125576704741E-2</v>
       </c>
       <c r="D436">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E436">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12640,11 +12205,10 @@
         <v>1.5950646251440052E-2</v>
       </c>
       <c r="D437">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E437">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12659,11 +12223,10 @@
         <v>2.7769682928919789E-2</v>
       </c>
       <c r="D438">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E438">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12678,11 +12241,10 @@
         <v>0.98530685901641846</v>
       </c>
       <c r="D439">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E439">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F439">
@@ -12700,11 +12262,10 @@
         <v>0.98134976625442505</v>
       </c>
       <c r="D440">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E440">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F440">
@@ -12722,11 +12283,10 @@
         <v>1.3792569749057289E-2</v>
       </c>
       <c r="D441">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E441">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12741,11 +12301,10 @@
         <v>3.6757849156856537E-2</v>
       </c>
       <c r="D442">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E442">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12760,11 +12319,10 @@
         <v>1.4029037207365039E-2</v>
       </c>
       <c r="D443">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E443">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12779,11 +12337,10 @@
         <v>1.434448454529047E-2</v>
       </c>
       <c r="D444">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E444">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12798,11 +12355,10 @@
         <v>0.98517400026321411</v>
       </c>
       <c r="D445">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E445">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -12817,11 +12373,10 @@
         <v>1.370907668024302E-2</v>
       </c>
       <c r="D446">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E446">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12836,11 +12391,10 @@
         <v>0.21783192455768591</v>
       </c>
       <c r="D447">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E447">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12855,11 +12409,10 @@
         <v>1.483362168073654E-2</v>
       </c>
       <c r="D448">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E448">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12874,11 +12427,10 @@
         <v>0.98544353246688843</v>
       </c>
       <c r="D449">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E449">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -12893,11 +12445,10 @@
         <v>0.98537975549697876</v>
       </c>
       <c r="D450">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E450">
-        <f t="shared" ref="E450:E513" si="14">IF(ISBLANK(F450),D450,F450)</f>
         <v>1</v>
       </c>
     </row>
@@ -12912,11 +12463,10 @@
         <v>1.552860345691442E-2</v>
       </c>
       <c r="D451">
-        <f t="shared" ref="D451:D514" si="15">IF(C451&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D451:D514" si="7">IF(C451&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E451">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12931,11 +12481,10 @@
         <v>1.378696598112583E-2</v>
       </c>
       <c r="D452">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E452">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12950,11 +12499,10 @@
         <v>1.387641858309507E-2</v>
       </c>
       <c r="D453">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E453">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12969,11 +12517,10 @@
         <v>1.459406036883593E-2</v>
       </c>
       <c r="D454">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E454">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12988,11 +12535,10 @@
         <v>1.3761689886450769E-2</v>
       </c>
       <c r="D455">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E455">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13007,11 +12553,10 @@
         <v>1.8129974603652951E-2</v>
       </c>
       <c r="D456">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E456">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13026,11 +12571,10 @@
         <v>1.3700646348297599E-2</v>
       </c>
       <c r="D457">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E457">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13045,11 +12589,10 @@
         <v>1.39005221426487E-2</v>
       </c>
       <c r="D458">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E458">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13064,11 +12607,10 @@
         <v>1.9313044846057888E-2</v>
       </c>
       <c r="D459">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E459">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13083,11 +12625,10 @@
         <v>1.384600624442101E-2</v>
       </c>
       <c r="D460">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E460">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13102,11 +12643,10 @@
         <v>1.5597997233271601E-2</v>
       </c>
       <c r="D461">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E461">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13121,11 +12661,10 @@
         <v>1.3865526765584949E-2</v>
       </c>
       <c r="D462">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E462">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13140,11 +12679,10 @@
         <v>3.7493515759706497E-2</v>
       </c>
       <c r="D463">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E463">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13159,11 +12697,10 @@
         <v>0.98093032836914063</v>
       </c>
       <c r="D464">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E464">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -13178,11 +12715,10 @@
         <v>0.89696234464645386</v>
       </c>
       <c r="D465">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E465">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -13197,11 +12733,10 @@
         <v>0.98538637161254883</v>
       </c>
       <c r="D466">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E466">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F466">
@@ -13219,11 +12754,10 @@
         <v>1.377952471375465E-2</v>
       </c>
       <c r="D467">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E467">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13238,11 +12772,10 @@
         <v>2.226145006716251E-2</v>
       </c>
       <c r="D468">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E468">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13257,11 +12790,10 @@
         <v>0.98522365093231201</v>
       </c>
       <c r="D469">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E469">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F469">
@@ -13279,11 +12811,10 @@
         <v>1.9599694758653641E-2</v>
       </c>
       <c r="D470">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E470">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13298,11 +12829,10 @@
         <v>0.88223415613174438</v>
       </c>
       <c r="D471">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E471">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F471">
@@ -13320,11 +12850,10 @@
         <v>0.98548120260238647</v>
       </c>
       <c r="D472">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E472">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -13339,11 +12868,10 @@
         <v>1.3591460883617399E-2</v>
       </c>
       <c r="D473">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E473">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13358,11 +12886,10 @@
         <v>0.98083680868148804</v>
       </c>
       <c r="D474">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E474">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F474">
@@ -13380,11 +12907,10 @@
         <v>1.3982021249830719E-2</v>
       </c>
       <c r="D475">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E475">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13399,11 +12925,10 @@
         <v>1.9029146060347561E-2</v>
       </c>
       <c r="D476">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E476">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13418,11 +12943,10 @@
         <v>1.372663769870996E-2</v>
       </c>
       <c r="D477">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E477">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13437,11 +12961,10 @@
         <v>1.458888314664364E-2</v>
       </c>
       <c r="D478">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E478">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13456,11 +12979,10 @@
         <v>1.4037297107279301E-2</v>
       </c>
       <c r="D479">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E479">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13475,11 +12997,10 @@
         <v>1.5340761281549931E-2</v>
       </c>
       <c r="D480">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E480">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13494,11 +13015,10 @@
         <v>1.442052982747555E-2</v>
       </c>
       <c r="D481">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E481">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13513,11 +13033,10 @@
         <v>1.423499267548323E-2</v>
       </c>
       <c r="D482">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E482">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13532,11 +13051,10 @@
         <v>0.98349964618682861</v>
       </c>
       <c r="D483">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E483">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -13551,11 +13069,10 @@
         <v>0.98540616035461426</v>
       </c>
       <c r="D484">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E484">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -13570,11 +13087,10 @@
         <v>3.2431252300739288E-2</v>
       </c>
       <c r="D485">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E485">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13589,11 +13105,10 @@
         <v>1.4041546732187269E-2</v>
       </c>
       <c r="D486">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E486">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13608,11 +13123,10 @@
         <v>0.98266589641571045</v>
       </c>
       <c r="D487">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E487">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -13627,11 +13141,10 @@
         <v>1.400722097605467E-2</v>
       </c>
       <c r="D488">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E488">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13646,11 +13159,10 @@
         <v>0.98547840118408203</v>
       </c>
       <c r="D489">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E489">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -13665,11 +13177,10 @@
         <v>0.9854736328125</v>
       </c>
       <c r="D490">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E490">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -13684,11 +13195,10 @@
         <v>0.98545199632644653</v>
       </c>
       <c r="D491">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E491">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -13703,11 +13213,10 @@
         <v>4.261297732591629E-2</v>
       </c>
       <c r="D492">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E492">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13722,11 +13231,10 @@
         <v>1.9548540934920311E-2</v>
       </c>
       <c r="D493">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E493">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13741,11 +13249,10 @@
         <v>1.47978812456131E-2</v>
       </c>
       <c r="D494">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E494">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13760,11 +13267,10 @@
         <v>2.8789788484573361E-2</v>
       </c>
       <c r="D495">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E495">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13779,11 +13285,10 @@
         <v>0.98547780513763428</v>
       </c>
       <c r="D496">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E496">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -13798,11 +13303,10 @@
         <v>1.359847653657198E-2</v>
       </c>
       <c r="D497">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E497">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13817,11 +13321,10 @@
         <v>0.98537319898605347</v>
       </c>
       <c r="D498">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E498">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F498">
@@ -13839,11 +13342,10 @@
         <v>1.5211497433483601E-2</v>
       </c>
       <c r="D499">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E499">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13858,11 +13360,10 @@
         <v>1.403945498168468E-2</v>
       </c>
       <c r="D500">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E500">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13877,11 +13378,10 @@
         <v>6.9316215813159943E-2</v>
       </c>
       <c r="D501">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E501">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13896,11 +13396,10 @@
         <v>3.5791799426078803E-2</v>
       </c>
       <c r="D502">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E502">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13915,11 +13414,10 @@
         <v>4.2094871401786797E-2</v>
       </c>
       <c r="D503">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E503">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13934,11 +13432,10 @@
         <v>1.405144017189741E-2</v>
       </c>
       <c r="D504">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E504">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13953,11 +13450,10 @@
         <v>1.403802912682295E-2</v>
       </c>
       <c r="D505">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E505">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13972,11 +13468,10 @@
         <v>1.377672515809536E-2</v>
       </c>
       <c r="D506">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E506">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13991,11 +13486,10 @@
         <v>0.97485977411270142</v>
       </c>
       <c r="D507">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E507">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F507">
@@ -14013,11 +13507,10 @@
         <v>1.4617785811424261E-2</v>
       </c>
       <c r="D508">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E508">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14032,11 +13525,10 @@
         <v>0.98291945457458496</v>
       </c>
       <c r="D509">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E509">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F509">
@@ -14054,11 +13546,10 @@
         <v>1.402745395898819E-2</v>
       </c>
       <c r="D510">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E510">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14073,11 +13564,10 @@
         <v>1.377315726131201E-2</v>
       </c>
       <c r="D511">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E511">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14092,11 +13582,10 @@
         <v>1.3739632442593569E-2</v>
       </c>
       <c r="D512">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E512">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14111,11 +13600,10 @@
         <v>1.3602013699710371E-2</v>
       </c>
       <c r="D513">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E513">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14130,11 +13618,10 @@
         <v>1.3861542567610741E-2</v>
       </c>
       <c r="D514">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E514">
-        <f t="shared" ref="E514:E577" si="16">IF(ISBLANK(F514),D514,F514)</f>
         <v>0</v>
       </c>
     </row>
@@ -14149,11 +13636,10 @@
         <v>1.3805709779262539E-2</v>
       </c>
       <c r="D515">
-        <f t="shared" ref="D515:D578" si="17">IF(C515&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D515:D578" si="8">IF(C515&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E515">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14168,11 +13654,10 @@
         <v>1.4402817003428939E-2</v>
       </c>
       <c r="D516">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E516">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14187,11 +13672,10 @@
         <v>3.1232306733727459E-2</v>
       </c>
       <c r="D517">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E517">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14206,11 +13690,10 @@
         <v>0.98497170209884644</v>
       </c>
       <c r="D518">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E518">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F518">
@@ -14228,11 +13711,10 @@
         <v>4.1684415191411972E-2</v>
       </c>
       <c r="D519">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E519">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14247,11 +13729,10 @@
         <v>0.92973405122756958</v>
       </c>
       <c r="D520">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E520">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F520">
@@ -14269,11 +13750,10 @@
         <v>0.9851110577583313</v>
       </c>
       <c r="D521">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E521">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F521">
@@ -14291,11 +13771,10 @@
         <v>1.39231039211154E-2</v>
       </c>
       <c r="D522">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E522">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14310,11 +13789,10 @@
         <v>1.372921280562878E-2</v>
       </c>
       <c r="D523">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E523">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14329,11 +13807,10 @@
         <v>0.2173984497785568</v>
       </c>
       <c r="D524">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E524">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14348,11 +13825,10 @@
         <v>1.461078692227602E-2</v>
       </c>
       <c r="D525">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E525">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14367,11 +13843,10 @@
         <v>0.98374444246292114</v>
       </c>
       <c r="D526">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E526">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F526">
@@ -14389,11 +13864,10 @@
         <v>3.3802732825279243E-2</v>
       </c>
       <c r="D527">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E527">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14408,11 +13882,10 @@
         <v>1.366453245282173E-2</v>
       </c>
       <c r="D528">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E528">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14427,11 +13900,10 @@
         <v>1.3722784817218781E-2</v>
       </c>
       <c r="D529">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E529">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14446,11 +13918,10 @@
         <v>1.421369798481464E-2</v>
       </c>
       <c r="D530">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E530">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14465,11 +13936,10 @@
         <v>0.86496418714523315</v>
       </c>
       <c r="D531">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E531">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F531">
@@ -14487,11 +13957,10 @@
         <v>1.414638012647629E-2</v>
       </c>
       <c r="D532">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E532">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14506,11 +13975,10 @@
         <v>1.4291368424892431E-2</v>
       </c>
       <c r="D533">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E533">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14525,11 +13993,10 @@
         <v>1.3679154217243189E-2</v>
       </c>
       <c r="D534">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E534">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14544,11 +14011,10 @@
         <v>1.368600688874722E-2</v>
       </c>
       <c r="D535">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E535">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14563,11 +14029,10 @@
         <v>5.1535297185182571E-2</v>
       </c>
       <c r="D536">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E536">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14582,11 +14047,10 @@
         <v>1.4027882367372509E-2</v>
       </c>
       <c r="D537">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E537">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14601,11 +14065,10 @@
         <v>1.534960698336363E-2</v>
       </c>
       <c r="D538">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E538">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14620,11 +14083,10 @@
         <v>1.392929162830114E-2</v>
       </c>
       <c r="D539">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E539">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14639,11 +14101,10 @@
         <v>0.98533034324645996</v>
       </c>
       <c r="D540">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E540">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F540">
@@ -14661,11 +14122,10 @@
         <v>1.3958492316305641E-2</v>
       </c>
       <c r="D541">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E541">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14680,11 +14140,10 @@
         <v>4.8540305346250527E-2</v>
       </c>
       <c r="D542">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E542">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14699,11 +14158,10 @@
         <v>1.7005624249577519E-2</v>
       </c>
       <c r="D543">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E543">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14718,11 +14176,10 @@
         <v>0.9840208888053894</v>
       </c>
       <c r="D544">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E544">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F544">
@@ -14740,11 +14197,10 @@
         <v>0.21734581887722021</v>
       </c>
       <c r="D545">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E545">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14759,11 +14215,10 @@
         <v>1.3712171465158461E-2</v>
       </c>
       <c r="D546">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E546">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14778,11 +14233,10 @@
         <v>3.1107667833566669E-2</v>
       </c>
       <c r="D547">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E547">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14797,11 +14251,10 @@
         <v>0.39462721347808838</v>
       </c>
       <c r="D548">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E548">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14816,11 +14269,10 @@
         <v>1.415027771145105E-2</v>
       </c>
       <c r="D549">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E549">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14835,11 +14287,10 @@
         <v>1.4075407758355141E-2</v>
       </c>
       <c r="D550">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E550">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14854,11 +14305,10 @@
         <v>1.7512723803520199E-2</v>
       </c>
       <c r="D551">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E551">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14873,11 +14323,10 @@
         <v>1.5848737210035321E-2</v>
       </c>
       <c r="D552">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E552">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14892,11 +14341,10 @@
         <v>1.630864292383194E-2</v>
       </c>
       <c r="D553">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E553">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14911,11 +14359,10 @@
         <v>1.5166632831096649E-2</v>
       </c>
       <c r="D554">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E554">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14930,11 +14377,10 @@
         <v>0.98541718721389771</v>
       </c>
       <c r="D555">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E555">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -14949,11 +14395,10 @@
         <v>2.450270019471645E-2</v>
       </c>
       <c r="D556">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E556">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14968,11 +14413,10 @@
         <v>1.386339962482452E-2</v>
       </c>
       <c r="D557">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E557">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14987,11 +14431,10 @@
         <v>2.9406554996967319E-2</v>
       </c>
       <c r="D558">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E558">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15006,11 +14449,10 @@
         <v>1.4360120519995689E-2</v>
       </c>
       <c r="D559">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E559">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15025,11 +14467,10 @@
         <v>1.364794839173555E-2</v>
       </c>
       <c r="D560">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E560">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15044,11 +14485,10 @@
         <v>2.259732969105244E-2</v>
       </c>
       <c r="D561">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E561">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15063,11 +14503,10 @@
         <v>1.387129724025726E-2</v>
       </c>
       <c r="D562">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E562">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15082,11 +14521,10 @@
         <v>1.4604988507926461E-2</v>
       </c>
       <c r="D563">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E563">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15101,11 +14539,10 @@
         <v>1.391237787902355E-2</v>
       </c>
       <c r="D564">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E564">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15120,11 +14557,10 @@
         <v>3.009909018874168E-2</v>
       </c>
       <c r="D565">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E565">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15139,11 +14575,10 @@
         <v>1.370358373969793E-2</v>
       </c>
       <c r="D566">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E566">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15158,11 +14593,10 @@
         <v>2.9122201725840569E-2</v>
       </c>
       <c r="D567">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E567">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15177,11 +14611,10 @@
         <v>0.21763654053211209</v>
       </c>
       <c r="D568">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E568">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15196,11 +14629,10 @@
         <v>0.98514926433563232</v>
       </c>
       <c r="D569">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E569">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F569">
@@ -15218,11 +14650,10 @@
         <v>1.375331170856953E-2</v>
       </c>
       <c r="D570">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E570">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15237,11 +14668,10 @@
         <v>1.388413272798061E-2</v>
       </c>
       <c r="D571">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E571">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15256,11 +14686,10 @@
         <v>1.376615557819605E-2</v>
       </c>
       <c r="D572">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E572">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15275,11 +14704,10 @@
         <v>1.5027502551674839E-2</v>
       </c>
       <c r="D573">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E573">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15294,11 +14722,10 @@
         <v>1.4224972575902941E-2</v>
       </c>
       <c r="D574">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E574">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15313,11 +14740,10 @@
         <v>0.21730375289916989</v>
       </c>
       <c r="D575">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E575">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15332,11 +14758,10 @@
         <v>1.380359288305044E-2</v>
       </c>
       <c r="D576">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E576">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15351,11 +14776,10 @@
         <v>1.48059269413352E-2</v>
       </c>
       <c r="D577">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E577">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15370,11 +14794,10 @@
         <v>0.98546499013900757</v>
       </c>
       <c r="D578">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E578">
-        <f t="shared" ref="E578:E635" si="18">IF(ISBLANK(F578),D578,F578)</f>
         <v>0</v>
       </c>
       <c r="F578">
@@ -15392,11 +14815,10 @@
         <v>0.21762038767337799</v>
       </c>
       <c r="D579">
-        <f t="shared" ref="D579:D635" si="19">IF(C579&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D579:D635" si="9">IF(C579&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E579">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15411,11 +14833,10 @@
         <v>0.98544031381607056</v>
       </c>
       <c r="D580">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E580">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F580">
@@ -15433,11 +14854,10 @@
         <v>1.4644617214798931E-2</v>
       </c>
       <c r="D581">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E581">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15452,11 +14872,10 @@
         <v>1.3984460383653641E-2</v>
       </c>
       <c r="D582">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E582">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15471,11 +14890,10 @@
         <v>6.5372765064239502E-2</v>
       </c>
       <c r="D583">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E583">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15490,11 +14908,10 @@
         <v>1.4073243364691731E-2</v>
       </c>
       <c r="D584">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E584">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15509,11 +14926,10 @@
         <v>0.21770516037940979</v>
       </c>
       <c r="D585">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E585">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15528,11 +14944,10 @@
         <v>0.98538416624069214</v>
       </c>
       <c r="D586">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E586">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F586">
@@ -15550,11 +14965,10 @@
         <v>1.384760066866875E-2</v>
       </c>
       <c r="D587">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E587">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15569,11 +14983,10 @@
         <v>2.5849997997283939E-2</v>
       </c>
       <c r="D588">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E588">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15588,11 +15001,10 @@
         <v>0.98324066400527954</v>
       </c>
       <c r="D589">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E589">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F589">
@@ -15610,11 +15022,10 @@
         <v>1.3793074525892729E-2</v>
       </c>
       <c r="D590">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E590">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15629,11 +15040,10 @@
         <v>2.5183934718370441E-2</v>
       </c>
       <c r="D591">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E591">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15648,11 +15058,10 @@
         <v>1.441687066107988E-2</v>
       </c>
       <c r="D592">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E592">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15667,11 +15076,10 @@
         <v>1.523393485695124E-2</v>
       </c>
       <c r="D593">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E593">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15686,11 +15094,10 @@
         <v>1.385771762579679E-2</v>
       </c>
       <c r="D594">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E594">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15705,11 +15112,10 @@
         <v>0.98509716987609863</v>
       </c>
       <c r="D595">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E595">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F595">
@@ -15727,11 +15133,10 @@
         <v>1.3876901939511299E-2</v>
       </c>
       <c r="D596">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E596">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15746,11 +15151,10 @@
         <v>1.7012361437082291E-2</v>
       </c>
       <c r="D597">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E597">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15765,11 +15169,10 @@
         <v>2.935138531029224E-2</v>
       </c>
       <c r="D598">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E598">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15784,11 +15187,10 @@
         <v>1.431370619684458E-2</v>
       </c>
       <c r="D599">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E599">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15803,11 +15205,10 @@
         <v>3.9362393319606781E-2</v>
       </c>
       <c r="D600">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E600">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15822,11 +15223,10 @@
         <v>1.431253552436829E-2</v>
       </c>
       <c r="D601">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E601">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15841,11 +15241,10 @@
         <v>0.2176329642534256</v>
       </c>
       <c r="D602">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E602">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15860,11 +15259,10 @@
         <v>0.2176329642534256</v>
       </c>
       <c r="D603">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E603">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15879,11 +15277,10 @@
         <v>1.5973962843418121E-2</v>
       </c>
       <c r="D604">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E604">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15898,11 +15295,10 @@
         <v>1.364901382476091E-2</v>
       </c>
       <c r="D605">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E605">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15917,11 +15313,10 @@
         <v>1.5973962843418121E-2</v>
       </c>
       <c r="D606">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E606">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15936,11 +15331,10 @@
         <v>1.5973962843418121E-2</v>
       </c>
       <c r="D607">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E607">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15955,11 +15349,10 @@
         <v>1.3910506851971149E-2</v>
       </c>
       <c r="D608">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E608">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15974,11 +15367,10 @@
         <v>1.5973962843418121E-2</v>
       </c>
       <c r="D609">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E609">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15993,11 +15385,10 @@
         <v>1.408323738723993E-2</v>
       </c>
       <c r="D610">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E610">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16012,11 +15403,10 @@
         <v>1.5944937244057659E-2</v>
       </c>
       <c r="D611">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E611">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16031,11 +15421,10 @@
         <v>0.21745273470878601</v>
       </c>
       <c r="D612">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E612">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16050,11 +15439,10 @@
         <v>1.6103032976388931E-2</v>
       </c>
       <c r="D613">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E613">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16069,11 +15457,10 @@
         <v>0.97110199928283691</v>
       </c>
       <c r="D614">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E614">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F614">
@@ -16091,11 +15478,10 @@
         <v>1.3773364014923571E-2</v>
       </c>
       <c r="D615">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E615">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16110,11 +15496,10 @@
         <v>1.38740623369813E-2</v>
       </c>
       <c r="D616">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E616">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16129,11 +15514,10 @@
         <v>0.98511075973510742</v>
       </c>
       <c r="D617">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E617">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F617">
@@ -16151,11 +15535,10 @@
         <v>1.395362988114357E-2</v>
       </c>
       <c r="D618">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E618">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16170,11 +15553,10 @@
         <v>1.832790486514568E-2</v>
       </c>
       <c r="D619">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E619">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16189,11 +15571,10 @@
         <v>1.365950144827366E-2</v>
       </c>
       <c r="D620">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E620">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16208,11 +15589,10 @@
         <v>1.465665642172098E-2</v>
       </c>
       <c r="D621">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E621">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16227,11 +15607,10 @@
         <v>1.6522658988833431E-2</v>
       </c>
       <c r="D622">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E622">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16246,11 +15625,10 @@
         <v>0.89740824699401855</v>
       </c>
       <c r="D623">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E623">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F623">
@@ -16268,11 +15646,10 @@
         <v>0.98547458648681641</v>
       </c>
       <c r="D624">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E624">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F624">
@@ -16290,11 +15667,10 @@
         <v>1.3736570253968241E-2</v>
       </c>
       <c r="D625">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E625">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16309,11 +15685,10 @@
         <v>1.793383993208408E-2</v>
       </c>
       <c r="D626">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E626">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16328,11 +15703,10 @@
         <v>0.98541748523712158</v>
       </c>
       <c r="D627">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E627">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F627">
@@ -16350,11 +15724,10 @@
         <v>0.98544484376907349</v>
       </c>
       <c r="D628">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E628">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F628">
@@ -16372,11 +15745,10 @@
         <v>1.5894506126642231E-2</v>
       </c>
       <c r="D629">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E629">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16391,11 +15763,10 @@
         <v>2.320890873670578E-2</v>
       </c>
       <c r="D630">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E630">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16410,11 +15781,10 @@
         <v>0.97209584712982178</v>
       </c>
       <c r="D631">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E631">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F631">
@@ -16432,11 +15802,10 @@
         <v>0.90033608675003052</v>
       </c>
       <c r="D632">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E632">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F632">
@@ -16454,11 +15823,10 @@
         <v>1.5615975484251979E-2</v>
       </c>
       <c r="D633">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E633">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16473,11 +15841,10 @@
         <v>1.401631161570549E-2</v>
       </c>
       <c r="D634">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E634">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16492,11 +15859,10 @@
         <v>0.98545897006988525</v>
       </c>
       <c r="D635">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E635">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F635">
